--- a/data/compras.xlsx
+++ b/data/compras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C66FB5-0959-40A2-8563-55F2DAD80BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0E63B-17B1-4389-8616-21AA3680E165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS PENDENTES" sheetId="2" r:id="rId1"/>
@@ -988,7 +988,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/compras.xlsx
+++ b/data/compras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0E63B-17B1-4389-8616-21AA3680E165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED5E1B2-E7DB-4F92-B9EE-32CBDBBCB2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="601" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS PENDENTES" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="73">
   <si>
     <t>FORNECEDOR</t>
   </si>
@@ -242,6 +242,27 @@
   </si>
   <si>
     <t xml:space="preserve">ALCA FOODS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATIVOS </t>
+  </si>
+  <si>
+    <t>ABV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M&amp;B EMBALAGENS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTA FILOMENA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REI TERRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SÃO VITO </t>
+  </si>
+  <si>
+    <t>TORRES</t>
   </si>
 </sst>
 </file>
@@ -987,8 +1008,8 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,19 +1049,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B2" s="6">
-        <v>6154</v>
+        <v>6090</v>
       </c>
       <c r="C2" s="5">
-        <v>45755</v>
+        <v>45713</v>
       </c>
       <c r="D2" s="5">
-        <v>45751</v>
+        <v>45713</v>
       </c>
       <c r="E2" s="10">
-        <v>6035.5</v>
+        <v>2554.52</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>15</v>
@@ -1051,45 +1072,45 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B3" s="6">
-        <v>6153</v>
+        <v>6108</v>
       </c>
       <c r="C3" s="5">
-        <v>45754</v>
+        <v>45726</v>
       </c>
       <c r="D3" s="5">
-        <v>45751</v>
+        <v>45726</v>
       </c>
       <c r="E3" s="10">
-        <v>2745.5</v>
+        <v>3460.5</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="67" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B4" s="6">
-        <v>6152</v>
+        <v>6137</v>
       </c>
       <c r="C4" s="5">
-        <v>45754</v>
+        <v>45736</v>
       </c>
       <c r="D4" s="5">
-        <v>45751</v>
-      </c>
-      <c r="E4" s="33">
-        <v>2064.8000000000002</v>
+        <v>45736</v>
+      </c>
+      <c r="E4" s="10">
+        <v>608.77</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G4" s="67" t="s">
         <v>39</v>
@@ -1097,42 +1118,42 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B5" s="6">
-        <v>6147</v>
+        <v>6138</v>
       </c>
       <c r="C5" s="5">
-        <v>45754</v>
+        <v>45736</v>
       </c>
       <c r="D5" s="5">
-        <v>45754</v>
+        <v>45736</v>
       </c>
       <c r="E5" s="10">
-        <v>976</v>
+        <v>465</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="92" t="s">
-        <v>37</v>
+      <c r="G5" s="67" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B6" s="6">
-        <v>6148</v>
+        <v>6145</v>
       </c>
       <c r="C6" s="5">
-        <v>45756</v>
+        <v>45749</v>
       </c>
       <c r="D6" s="5">
-        <v>45755</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1610</v>
+        <v>45749</v>
+      </c>
+      <c r="E6" s="33">
+        <v>523.91</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>15</v>
@@ -1143,22 +1164,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B7" s="6">
-        <v>6156</v>
+        <v>6146</v>
       </c>
       <c r="C7" s="5">
-        <v>45755</v>
+        <v>45749</v>
       </c>
       <c r="D7" s="5">
-        <v>45755</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1820.07</v>
+        <v>45749</v>
+      </c>
+      <c r="E7" s="33">
+        <v>348</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G7" s="67" t="s">
         <v>39</v>
@@ -1166,42 +1187,42 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6">
-        <v>6155</v>
+        <v>6151</v>
       </c>
       <c r="C8" s="5">
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="D8" s="5">
-        <v>45755</v>
+        <v>45751</v>
       </c>
       <c r="E8" s="33">
-        <v>5752.04</v>
+        <v>288.7</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="90" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="6">
-        <v>6157</v>
+        <v>6148</v>
       </c>
       <c r="C9" s="5">
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="D9" s="5">
-        <v>45755</v>
+        <v>45751</v>
       </c>
       <c r="E9" s="33">
-        <v>420</v>
+        <v>2672</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -1212,19 +1233,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="6">
-        <v>6158</v>
+        <v>6150</v>
       </c>
       <c r="C10" s="5">
-        <v>45756</v>
+        <v>45754</v>
       </c>
       <c r="D10" s="5">
-        <v>45756</v>
-      </c>
-      <c r="E10" s="10">
-        <v>479.71</v>
+        <v>45751</v>
+      </c>
+      <c r="E10" s="33">
+        <v>2151.25</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>15</v>
@@ -1235,118 +1256,680 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" s="6">
-        <v>6160</v>
+        <v>6149</v>
       </c>
       <c r="C11" s="5">
-        <v>45756</v>
+        <v>45754</v>
       </c>
       <c r="D11" s="5">
-        <v>45756</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2060</v>
+        <v>45751</v>
+      </c>
+      <c r="E11" s="33">
+        <v>7003.63</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="92" t="s">
-        <v>37</v>
+      <c r="G11" s="67" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6">
+        <v>6154</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45755</v>
+      </c>
+      <c r="D12" s="5">
+        <v>45751</v>
+      </c>
+      <c r="E12" s="10">
+        <v>6035.5</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6153</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45754</v>
+      </c>
+      <c r="D13" s="5">
+        <v>45751</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2745.5</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6152</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45754</v>
+      </c>
+      <c r="D14" s="5">
+        <v>45751</v>
+      </c>
+      <c r="E14" s="33">
+        <v>2064.8000000000002</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="6">
+        <v>6147</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45754</v>
+      </c>
+      <c r="D15" s="5">
+        <v>45762</v>
+      </c>
+      <c r="E15" s="10">
+        <v>974.23</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6148</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45756</v>
+      </c>
+      <c r="D16" s="5">
+        <v>45755</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1610</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="6">
+        <v>6156</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45755</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45755</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1820.07</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="6">
+        <v>6155</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45755</v>
+      </c>
+      <c r="D18" s="5">
+        <v>45758</v>
+      </c>
+      <c r="E18" s="33">
+        <v>3720.04</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="6">
+        <v>6157</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45755</v>
+      </c>
+      <c r="D19" s="5">
+        <v>45755</v>
+      </c>
+      <c r="E19" s="33">
+        <v>420</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="6">
+        <v>6158</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45756</v>
+      </c>
+      <c r="D20" s="5">
+        <v>45756</v>
+      </c>
+      <c r="E20" s="10">
+        <v>479.71</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="6">
+        <v>6160</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45756</v>
+      </c>
+      <c r="D21" s="5">
+        <v>45756</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2060</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B22" s="6">
         <v>6162</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C22" s="5">
         <v>45757</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D22" s="5">
         <v>45757</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E22" s="10">
         <v>316.98</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="92" t="s">
+      <c r="G22" s="92" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="6">
+        <v>6163</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45757</v>
+      </c>
+      <c r="D23" s="5">
+        <v>45757</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2832.5</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="6">
+        <v>6164</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D24" s="5">
+        <v>45762</v>
+      </c>
+      <c r="E24" s="10">
+        <v>318.25</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="6">
+        <v>6165</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45762</v>
+      </c>
+      <c r="D25" s="5">
+        <v>45762</v>
+      </c>
+      <c r="E25" s="10">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5">
+        <v>45762</v>
+      </c>
+      <c r="E26" s="10">
+        <v>6927</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5">
+        <v>45762</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1412</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5">
+        <v>45762</v>
+      </c>
+      <c r="E28" s="10">
+        <v>460</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5">
+        <v>45763</v>
+      </c>
+      <c r="E29" s="10">
+        <v>508.54</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5">
+        <v>45762</v>
+      </c>
+      <c r="E30" s="10">
+        <v>3360</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5">
+        <v>45762</v>
+      </c>
+      <c r="E31" s="10">
+        <v>2569.5</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="6">
+        <v>6166</v>
+      </c>
+      <c r="C32" s="5">
+        <v>45763</v>
+      </c>
+      <c r="D32" s="5">
+        <v>45764</v>
+      </c>
+      <c r="E32" s="10">
+        <v>395.74</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="5">
+        <v>45763</v>
+      </c>
+      <c r="E33" s="10">
+        <v>785.5</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5">
+        <v>45763</v>
+      </c>
+      <c r="E34" s="10">
+        <v>464.59</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5">
+        <v>45763</v>
+      </c>
+      <c r="E35" s="33">
+        <v>555</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="5">
+        <v>45763</v>
+      </c>
+      <c r="E36" s="33">
+        <v>2091.9299999999998</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5">
+        <v>45763</v>
+      </c>
+      <c r="E37" s="10">
+        <v>380</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+    </row>
     <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1363,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="G1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:K1048576"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1968,7 @@
     <col min="12" max="12" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +2001,7 @@
       </c>
       <c r="K1" s="31"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
@@ -1438,23 +2021,41 @@
         <v>15</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="6">
+        <v>6145</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45749</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45749</v>
+      </c>
+      <c r="K2" s="10">
+        <v>523.91</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="13">
+      <c r="N2" s="13">
         <v>45196</v>
       </c>
-      <c r="I2" s="25">
+      <c r="O2" s="25">
         <v>45748</v>
       </c>
-      <c r="J2" s="32">
+      <c r="P2" s="32">
         <v>523.91</v>
       </c>
-      <c r="K2" s="88">
-        <f>J2-E2</f>
+      <c r="Q2" s="88">
+        <f>P2-K2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>63</v>
       </c>
@@ -1474,23 +2075,41 @@
         <v>15</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="6">
+        <v>6137</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45736</v>
+      </c>
+      <c r="J3" s="5">
+        <v>45750</v>
+      </c>
+      <c r="K3" s="10">
+        <v>608.73</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="13">
+      <c r="N3" s="13">
         <v>2453</v>
       </c>
-      <c r="I3" s="25">
+      <c r="O3" s="25">
         <v>45748</v>
       </c>
-      <c r="J3" s="32">
+      <c r="P3" s="32">
         <v>608.77</v>
       </c>
-      <c r="K3" s="88">
-        <f t="shared" ref="K3:K17" si="0">J3-E3</f>
+      <c r="Q3" s="88">
+        <f t="shared" ref="Q3:Q34" si="0">P3-K3</f>
         <v>3.999999999996362E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
@@ -1510,23 +2129,41 @@
         <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="6">
+        <v>6090</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45713</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45713</v>
+      </c>
+      <c r="K4" s="10">
+        <v>2554.58</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="28">
+      <c r="N4" s="28">
         <v>223958</v>
       </c>
-      <c r="I4" s="29">
+      <c r="O4" s="29">
         <v>45737</v>
       </c>
-      <c r="J4" s="32">
+      <c r="P4" s="32">
         <v>2554.52</v>
       </c>
-      <c r="K4" s="88">
+      <c r="Q4" s="88">
         <f t="shared" si="0"/>
         <v>-5.999999999994543E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
@@ -1546,23 +2183,41 @@
         <v>41</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="6">
+        <v>6151</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45754</v>
+      </c>
+      <c r="J5" s="5">
+        <v>45751</v>
+      </c>
+      <c r="K5" s="33">
+        <v>288.7</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="28">
+      <c r="N5" s="28">
         <v>299851</v>
       </c>
-      <c r="I5" s="29">
+      <c r="O5" s="29">
         <v>45751</v>
       </c>
-      <c r="J5" s="32">
+      <c r="P5" s="32">
         <v>288.7</v>
       </c>
-      <c r="K5" s="88">
+      <c r="Q5" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>51</v>
       </c>
@@ -1582,23 +2237,41 @@
         <v>15</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="6">
+        <v>6148</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45754</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45751</v>
+      </c>
+      <c r="K6" s="33">
+        <v>2672</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="28">
+      <c r="N6" s="28">
         <v>5821</v>
       </c>
-      <c r="I6" s="29">
+      <c r="O6" s="29">
         <v>45751</v>
       </c>
-      <c r="J6" s="32">
+      <c r="P6" s="32">
         <v>2672</v>
       </c>
-      <c r="K6" s="88">
+      <c r="Q6" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>56</v>
       </c>
@@ -1618,23 +2291,41 @@
         <v>15</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6">
+        <v>6150</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45754</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45751</v>
+      </c>
+      <c r="K7" s="33">
+        <v>2151.25</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="13">
+      <c r="N7" s="13">
         <v>54189</v>
       </c>
-      <c r="I7" s="25">
+      <c r="O7" s="25">
         <v>45751</v>
       </c>
-      <c r="J7" s="32">
+      <c r="P7" s="32">
         <v>2151.25</v>
       </c>
-      <c r="K7" s="88">
+      <c r="Q7" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
@@ -1654,23 +2345,41 @@
         <v>15</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="6">
+        <v>6149</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45754</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45751</v>
+      </c>
+      <c r="K8" s="33">
+        <v>7003.63</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="13">
+      <c r="N8" s="13">
         <v>22370</v>
       </c>
-      <c r="I8" s="25">
+      <c r="O8" s="25">
         <v>45751</v>
       </c>
-      <c r="J8" s="32">
+      <c r="P8" s="32">
         <v>7003.63</v>
       </c>
-      <c r="K8" s="88">
+      <c r="Q8" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
@@ -1689,24 +2398,42 @@
       <c r="F9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="6">
+        <v>6154</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45755</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45751</v>
+      </c>
+      <c r="K9" s="10">
+        <v>6035.5</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="13">
+      <c r="N9" s="13">
         <v>121574</v>
       </c>
-      <c r="I9" s="29">
+      <c r="O9" s="29">
         <v>45751</v>
       </c>
-      <c r="J9" s="14">
+      <c r="P9" s="14">
         <v>6035.5</v>
       </c>
-      <c r="K9" s="88">
+      <c r="Q9" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>49</v>
       </c>
@@ -1726,23 +2453,41 @@
         <v>15</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="6">
+        <v>6153</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45754</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45751</v>
+      </c>
+      <c r="K10" s="10">
+        <v>2745.5</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="13">
+      <c r="N10" s="13">
         <v>250847</v>
       </c>
-      <c r="I10" s="29">
+      <c r="O10" s="29">
         <v>45748</v>
       </c>
-      <c r="J10" s="32">
+      <c r="P10" s="32">
         <v>2745.5</v>
       </c>
-      <c r="K10" s="88">
+      <c r="Q10" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>64</v>
       </c>
@@ -1762,23 +2507,41 @@
         <v>41</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="6">
+        <v>6138</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45736</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45749</v>
+      </c>
+      <c r="K11" s="10">
+        <v>465</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="13">
+      <c r="N11" s="13">
         <v>333</v>
       </c>
-      <c r="I11" s="29">
+      <c r="O11" s="29">
         <v>45754</v>
       </c>
-      <c r="J11" s="32">
+      <c r="P11" s="32">
         <v>465</v>
       </c>
-      <c r="K11" s="88">
+      <c r="Q11" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
@@ -1798,23 +2561,41 @@
         <v>47</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="6">
+        <v>6152</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45754</v>
+      </c>
+      <c r="J12" s="5">
+        <v>45751</v>
+      </c>
+      <c r="K12" s="33">
+        <v>2064.8000000000002</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="13">
+      <c r="N12" s="13">
         <v>8390</v>
       </c>
-      <c r="I12" s="29">
+      <c r="O12" s="29">
         <v>45751</v>
       </c>
-      <c r="J12" s="32">
+      <c r="P12" s="32">
         <v>2064.8000000000002</v>
       </c>
-      <c r="K12" s="88">
+      <c r="Q12" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>60</v>
       </c>
@@ -1834,23 +2615,41 @@
         <v>15</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="6">
+        <v>6146</v>
+      </c>
+      <c r="I13" s="5">
+        <v>45749</v>
+      </c>
+      <c r="J13" s="5">
+        <v>45751</v>
+      </c>
+      <c r="K13" s="33">
+        <v>348</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="28">
+      <c r="N13" s="28">
         <v>1226</v>
       </c>
-      <c r="I13" s="29">
+      <c r="O13" s="29">
         <v>45750</v>
       </c>
-      <c r="J13" s="32">
+      <c r="P13" s="32">
         <v>348</v>
       </c>
-      <c r="K13" s="88">
+      <c r="Q13" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>65</v>
       </c>
@@ -1870,23 +2669,41 @@
         <v>15</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="6">
+        <v>6158</v>
+      </c>
+      <c r="I14" s="5">
+        <v>45756</v>
+      </c>
+      <c r="J14" s="5">
+        <v>45755</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1610</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="28">
+      <c r="N14" s="28">
         <v>195206</v>
       </c>
-      <c r="I14" s="29">
+      <c r="O14" s="29">
         <v>45747</v>
       </c>
-      <c r="J14" s="32">
+      <c r="P14" s="32">
         <v>1610</v>
       </c>
-      <c r="K14" s="88">
+      <c r="Q14" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
@@ -1906,23 +2723,41 @@
         <v>41</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="6">
+        <v>6156</v>
+      </c>
+      <c r="I15" s="5">
+        <v>45755</v>
+      </c>
+      <c r="J15" s="5">
+        <v>45755</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1820.07</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="28">
+      <c r="N15" s="28">
         <v>1383</v>
       </c>
-      <c r="I15" s="29">
+      <c r="O15" s="29">
         <v>45755</v>
       </c>
-      <c r="J15" s="32">
+      <c r="P15" s="32">
         <v>1820.07</v>
       </c>
-      <c r="K15" s="88">
+      <c r="Q15" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>58</v>
       </c>
@@ -1942,23 +2777,41 @@
         <v>15</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="6">
+        <v>6158</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45756</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45756</v>
+      </c>
+      <c r="K16" s="10">
+        <v>496.06</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="28">
+      <c r="N16" s="28">
         <v>45316</v>
       </c>
-      <c r="I16" s="29">
+      <c r="O16" s="29">
         <v>45755</v>
       </c>
-      <c r="J16" s="32">
+      <c r="P16" s="32">
         <v>496.06</v>
       </c>
-      <c r="K16" s="88">
+      <c r="Q16" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -1978,244 +2831,691 @@
         <v>15</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="6">
+        <v>6157</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45755</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45755</v>
+      </c>
+      <c r="K17" s="33">
+        <v>420</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="28">
+      <c r="N17" s="28">
         <v>15703</v>
       </c>
-      <c r="I17" s="29">
+      <c r="O17" s="29">
         <v>45754</v>
       </c>
-      <c r="J17" s="32">
+      <c r="P17" s="32">
         <v>420</v>
       </c>
-      <c r="K17" s="88">
+      <c r="Q17" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="6">
+        <v>6160</v>
+      </c>
+      <c r="I18" s="5">
+        <v>45756</v>
+      </c>
+      <c r="J18" s="5">
+        <v>45756</v>
+      </c>
+      <c r="K18" s="10">
+        <v>2060</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="28">
+        <v>121683</v>
+      </c>
+      <c r="O18" s="29">
+        <v>45756</v>
+      </c>
+      <c r="P18" s="32">
+        <v>2060</v>
+      </c>
+      <c r="Q18" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="6">
+        <v>6155</v>
+      </c>
+      <c r="I19" s="5">
+        <v>45755</v>
+      </c>
+      <c r="J19" s="5">
+        <v>45758</v>
+      </c>
+      <c r="K19" s="33">
+        <v>5752.04</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="28">
+        <v>516260</v>
+      </c>
+      <c r="O19" s="29">
+        <v>45758</v>
+      </c>
+      <c r="P19" s="32">
+        <v>3720.04</v>
+      </c>
+      <c r="Q19" s="30">
+        <f t="shared" si="0"/>
+        <v>-2032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="6">
+        <v>6163</v>
+      </c>
+      <c r="I20" s="5">
+        <v>45757</v>
+      </c>
+      <c r="J20" s="5">
+        <v>45757</v>
+      </c>
+      <c r="K20" s="10">
+        <v>2832.5</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="28">
+        <v>17679</v>
+      </c>
+      <c r="O20" s="29">
+        <v>45757</v>
+      </c>
+      <c r="P20" s="32">
+        <v>2832.5</v>
+      </c>
+      <c r="Q20" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="6">
+        <v>6147</v>
+      </c>
+      <c r="I21" s="5">
+        <v>45754</v>
+      </c>
+      <c r="J21" s="5">
+        <v>45762</v>
+      </c>
+      <c r="K21" s="10">
+        <v>976</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="28">
+        <v>205726</v>
+      </c>
+      <c r="O21" s="29">
+        <v>45761</v>
+      </c>
+      <c r="P21" s="14">
+        <v>974.23</v>
+      </c>
+      <c r="Q21" s="30">
+        <f t="shared" si="0"/>
+        <v>-1.7699999999999818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5">
+        <v>45762</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="28">
+        <v>25346</v>
+      </c>
+      <c r="O22" s="29">
+        <v>45758</v>
+      </c>
+      <c r="P22" s="14">
+        <v>6927</v>
+      </c>
+      <c r="Q22" s="30">
+        <f t="shared" si="0"/>
+        <v>6927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5">
+        <v>45762</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="28">
+        <v>251386</v>
+      </c>
+      <c r="O23" s="29">
+        <v>45762</v>
+      </c>
+      <c r="P23" s="14">
+        <v>1412</v>
+      </c>
+      <c r="Q23" s="30">
+        <f t="shared" si="0"/>
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5">
+        <v>45762</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="28">
+        <v>17833</v>
+      </c>
+      <c r="O24" s="29">
+        <v>45762</v>
+      </c>
+      <c r="P24" s="14">
+        <v>460</v>
+      </c>
+      <c r="Q24" s="30">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5">
+        <v>45762</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="28">
+        <v>302119</v>
+      </c>
+      <c r="O25" s="29">
+        <v>45762</v>
+      </c>
+      <c r="P25" s="14">
+        <v>508.54</v>
+      </c>
+      <c r="Q25" s="30">
+        <f t="shared" si="0"/>
+        <v>508.54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="5">
+        <v>45762</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="28">
+        <v>121952</v>
+      </c>
+      <c r="O26" s="29">
+        <v>45762</v>
+      </c>
+      <c r="P26" s="14">
+        <v>3360</v>
+      </c>
+      <c r="Q26" s="30">
+        <f t="shared" si="0"/>
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5">
+        <v>45762</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="28">
+        <v>11515</v>
+      </c>
+      <c r="O27" s="29">
+        <v>45762</v>
+      </c>
+      <c r="P27" s="14">
+        <v>2509.5</v>
+      </c>
+      <c r="Q27" s="30">
+        <f t="shared" si="0"/>
+        <v>2509.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="6">
+        <v>6165</v>
+      </c>
+      <c r="I28" s="5">
+        <v>45762</v>
+      </c>
+      <c r="J28" s="5">
+        <v>45762</v>
+      </c>
+      <c r="K28" s="10">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="28">
+        <v>981.2</v>
+      </c>
+      <c r="O28" s="29">
+        <v>45762</v>
+      </c>
+      <c r="P28" s="14">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="Q28" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="5">
+        <v>45763</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="28">
+        <v>54404</v>
+      </c>
+      <c r="O29" s="29">
+        <v>45763</v>
+      </c>
+      <c r="P29" s="14">
+        <v>785.5</v>
+      </c>
+      <c r="Q29" s="30">
+        <f t="shared" si="0"/>
+        <v>785.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="5">
+        <v>45763</v>
+      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="28">
+        <v>302336</v>
+      </c>
+      <c r="O30" s="29">
+        <v>45763</v>
+      </c>
+      <c r="P30" s="14">
+        <v>464.59</v>
+      </c>
+      <c r="Q30" s="30">
+        <f t="shared" si="0"/>
+        <v>464.59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="5">
+        <v>45763</v>
+      </c>
+      <c r="K31" s="33"/>
+      <c r="L31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="28">
+        <v>5899</v>
+      </c>
+      <c r="O31" s="29">
+        <v>45763</v>
+      </c>
+      <c r="P31" s="14">
+        <v>555</v>
+      </c>
+      <c r="Q31" s="30">
+        <f t="shared" si="0"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="5">
+        <v>45763</v>
+      </c>
+      <c r="K32" s="33"/>
+      <c r="L32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="28">
+        <v>23107</v>
+      </c>
+      <c r="O32" s="29">
+        <v>45763</v>
+      </c>
+      <c r="P32" s="14">
+        <v>2091.9299999999998</v>
+      </c>
+      <c r="Q32" s="30">
+        <f t="shared" si="0"/>
+        <v>2091.9299999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="6">
+        <v>6166</v>
+      </c>
+      <c r="I33" s="5">
+        <v>45763</v>
+      </c>
+      <c r="J33" s="5">
+        <v>45764</v>
+      </c>
+      <c r="K33" s="10">
+        <v>395.74</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="28">
+        <v>45423</v>
+      </c>
+      <c r="O33" s="29">
+        <v>45762</v>
+      </c>
+      <c r="P33" s="14">
+        <v>395.74</v>
+      </c>
+      <c r="Q33" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="5">
+        <v>45763</v>
+      </c>
+      <c r="K34" s="10">
+        <v>380</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="28">
+        <v>7884</v>
+      </c>
+      <c r="O34" s="29">
+        <v>45762</v>
+      </c>
+      <c r="P34" s="14">
+        <v>380</v>
+      </c>
+      <c r="Q34" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -2228,7 +3528,7 @@
       <c r="J35"/>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -2241,7 +3541,7 @@
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>61</v>
       </c>
@@ -2274,7 +3574,7 @@
       </c>
       <c r="K37" s="30"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>55</v>
       </c>
@@ -2307,7 +3607,7 @@
       </c>
       <c r="K38" s="30"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>58</v>
       </c>
@@ -2340,7 +3640,7 @@
       </c>
       <c r="K39" s="30"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>16</v>
       </c>
@@ -2373,7 +3673,7 @@
       </c>
       <c r="K40" s="30"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>16</v>
       </c>
@@ -2406,7 +3706,7 @@
       </c>
       <c r="K41" s="30"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>59</v>
       </c>
@@ -2439,7 +3739,7 @@
       </c>
       <c r="K42" s="30"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>60</v>
       </c>
@@ -2472,7 +3772,7 @@
       </c>
       <c r="K43" s="30"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>49</v>
       </c>
@@ -2505,7 +3805,7 @@
       </c>
       <c r="K44" s="30"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>52</v>
       </c>
@@ -2538,7 +3838,7 @@
       </c>
       <c r="K45" s="30"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>62</v>
       </c>
@@ -2571,7 +3871,7 @@
       </c>
       <c r="K46" s="30"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>58</v>
       </c>
@@ -2604,7 +3904,7 @@
       </c>
       <c r="K47" s="30"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>55</v>
       </c>
@@ -2715,7 +4015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2DA0E4-CCDD-4F72-A41B-CCB2EC005DCE}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>

--- a/data/compras.xlsx
+++ b/data/compras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED5E1B2-E7DB-4F92-B9EE-32CBDBBCB2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60917A93-B267-4BCF-B237-4C55907C9691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="601" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS PENDENTES" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="75">
   <si>
     <t>FORNECEDOR</t>
   </si>
@@ -211,9 +211,6 @@
     <t xml:space="preserve">PLASTMAN </t>
   </si>
   <si>
-    <t xml:space="preserve">NEBO </t>
-  </si>
-  <si>
     <t>TET</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t xml:space="preserve">PAO DIVINO </t>
   </si>
   <si>
-    <t xml:space="preserve">JR ETIQUETAS </t>
-  </si>
-  <si>
     <t xml:space="preserve">BANANAS NATURAIS </t>
   </si>
   <si>
@@ -244,9 +238,6 @@
     <t xml:space="preserve">ALCA FOODS </t>
   </si>
   <si>
-    <t xml:space="preserve">NATIVOS </t>
-  </si>
-  <si>
     <t>ABV</t>
   </si>
   <si>
@@ -263,6 +254,21 @@
   </si>
   <si>
     <t>TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WNF </t>
+  </si>
+  <si>
+    <t>MAXNUTRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECIBO </t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NE IMPORTADORA E DISTRIBUIDORA ALIM</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,6 +680,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1008,8 +1020,8 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,22 +1061,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B2" s="6">
-        <v>6090</v>
+        <v>6162</v>
       </c>
       <c r="C2" s="5">
-        <v>45713</v>
+        <v>45757</v>
       </c>
       <c r="D2" s="5">
-        <v>45713</v>
+        <v>45772</v>
       </c>
       <c r="E2" s="10">
-        <v>2554.52</v>
+        <v>373.14</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G2" s="67" t="s">
         <v>39</v>
@@ -1072,68 +1084,68 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="6">
-        <v>6108</v>
+        <v>6163</v>
       </c>
       <c r="C3" s="5">
-        <v>45726</v>
+        <v>45757</v>
       </c>
       <c r="D3" s="5">
-        <v>45726</v>
+        <v>45757</v>
       </c>
       <c r="E3" s="10">
-        <v>3460.5</v>
+        <v>2832.5</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="90" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="6">
-        <v>6137</v>
+        <v>6164</v>
       </c>
       <c r="C4" s="5">
-        <v>45736</v>
+        <v>45762</v>
       </c>
       <c r="D4" s="5">
-        <v>45736</v>
+        <v>45762</v>
       </c>
       <c r="E4" s="10">
-        <v>608.77</v>
+        <v>318.25</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="G4" s="92" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6">
-        <v>6138</v>
+        <v>6165</v>
       </c>
       <c r="C5" s="5">
-        <v>45736</v>
+        <v>45762</v>
       </c>
       <c r="D5" s="5">
-        <v>45736</v>
+        <v>45762</v>
       </c>
       <c r="E5" s="10">
-        <v>465</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G5" s="67" t="s">
         <v>39</v>
@@ -1141,19 +1153,15 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="6">
-        <v>6145</v>
-      </c>
-      <c r="C6" s="5">
-        <v>45749</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="5">
-        <v>45749</v>
-      </c>
-      <c r="E6" s="33">
-        <v>523.91</v>
+        <v>45762</v>
+      </c>
+      <c r="E6" s="10">
+        <v>6927</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>15</v>
@@ -1164,19 +1172,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B7" s="6">
-        <v>6146</v>
+        <v>6168</v>
       </c>
       <c r="C7" s="5">
-        <v>45749</v>
+        <v>45764</v>
       </c>
       <c r="D7" s="5">
-        <v>45749</v>
-      </c>
-      <c r="E7" s="33">
-        <v>348</v>
+        <v>45762</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1412</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>15</v>
@@ -1187,42 +1195,38 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6">
-        <v>6151</v>
+        <v>2204</v>
       </c>
       <c r="C8" s="5">
-        <v>45754</v>
+        <v>45764</v>
       </c>
       <c r="D8" s="5">
-        <v>45751</v>
-      </c>
-      <c r="E8" s="33">
-        <v>288.7</v>
+        <v>45762</v>
+      </c>
+      <c r="E8" s="10">
+        <v>460</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G8" s="67" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="6">
-        <v>6148</v>
-      </c>
-      <c r="C9" s="5">
-        <v>45754</v>
-      </c>
+      <c r="A9" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="5">
-        <v>45751</v>
-      </c>
-      <c r="E9" s="33">
-        <v>2672</v>
+        <v>45763</v>
+      </c>
+      <c r="E9" s="10">
+        <v>508.54</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
@@ -1232,20 +1236,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="6">
-        <v>6150</v>
-      </c>
-      <c r="C10" s="5">
-        <v>45754</v>
-      </c>
+      <c r="A10" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="5">
-        <v>45751</v>
-      </c>
-      <c r="E10" s="33">
-        <v>2151.25</v>
+        <v>45762</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3360</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>15</v>
@@ -1255,20 +1255,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="6">
-        <v>6149</v>
-      </c>
-      <c r="C11" s="5">
-        <v>45754</v>
-      </c>
+      <c r="A11" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="5">
-        <v>45751</v>
-      </c>
-      <c r="E11" s="33">
-        <v>7003.63</v>
+        <v>45762</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2569.5</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>15</v>
@@ -1279,19 +1275,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B12" s="6">
-        <v>6154</v>
+        <v>6166</v>
       </c>
       <c r="C12" s="5">
-        <v>45755</v>
+        <v>45763</v>
       </c>
       <c r="D12" s="5">
-        <v>45751</v>
+        <v>45764</v>
       </c>
       <c r="E12" s="10">
-        <v>6035.5</v>
+        <v>395.74</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>15</v>
@@ -1301,20 +1297,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="6">
-        <v>6153</v>
-      </c>
-      <c r="C13" s="5">
-        <v>45754</v>
-      </c>
+      <c r="A13" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="5">
-        <v>45751</v>
+        <v>45763</v>
       </c>
       <c r="E13" s="10">
-        <v>2745.5</v>
+        <v>785.5</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>15</v>
@@ -1324,43 +1316,35 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="6">
-        <v>6152</v>
-      </c>
-      <c r="C14" s="5">
-        <v>45754</v>
-      </c>
+      <c r="A14" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="5">
-        <v>45751</v>
-      </c>
-      <c r="E14" s="33">
-        <v>2064.8000000000002</v>
+        <v>45763</v>
+      </c>
+      <c r="E14" s="10">
+        <v>464.59</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G14" s="67" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="6">
-        <v>6147</v>
-      </c>
-      <c r="C15" s="5">
-        <v>45754</v>
-      </c>
+      <c r="A15" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="5">
-        <v>45762</v>
-      </c>
-      <c r="E15" s="10">
-        <v>974.23</v>
+        <v>45763</v>
+      </c>
+      <c r="E15" s="33">
+        <v>555</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>15</v>
@@ -1371,19 +1355,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B16" s="6">
-        <v>6148</v>
+        <v>6171</v>
       </c>
       <c r="C16" s="5">
-        <v>45756</v>
+        <v>45764</v>
       </c>
       <c r="D16" s="5">
-        <v>45755</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1610</v>
+        <v>45763</v>
+      </c>
+      <c r="E16" s="33">
+        <v>2091.9299999999998</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>15</v>
@@ -1394,19 +1378,15 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="6">
-        <v>6156</v>
-      </c>
-      <c r="C17" s="5">
-        <v>45755</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="5">
-        <v>45755</v>
+        <v>45763</v>
       </c>
       <c r="E17" s="10">
-        <v>1820.07</v>
+        <v>380</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>41</v>
@@ -1417,22 +1397,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B18" s="6">
-        <v>6155</v>
+        <v>6167</v>
       </c>
       <c r="C18" s="5">
-        <v>45755</v>
+        <v>45763</v>
       </c>
       <c r="D18" s="5">
-        <v>45758</v>
-      </c>
-      <c r="E18" s="33">
-        <v>3720.04</v>
+        <v>45764</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2500</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G18" s="67" t="s">
         <v>39</v>
@@ -1440,25 +1420,25 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="6">
-        <v>6157</v>
+        <v>6169</v>
       </c>
       <c r="C19" s="5">
-        <v>45755</v>
+        <v>45764</v>
       </c>
       <c r="D19" s="5">
-        <v>45755</v>
+        <v>45764</v>
       </c>
       <c r="E19" s="33">
-        <v>420</v>
+        <v>473.94</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="67" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="G19" s="90" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,16 +1446,16 @@
         <v>58</v>
       </c>
       <c r="B20" s="6">
-        <v>6158</v>
+        <v>6170</v>
       </c>
       <c r="C20" s="5">
-        <v>45756</v>
+        <v>45764</v>
       </c>
       <c r="D20" s="5">
-        <v>45756</v>
+        <v>45764</v>
       </c>
       <c r="E20" s="10">
-        <v>479.71</v>
+        <v>408</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>15</v>
@@ -1486,19 +1466,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B21" s="6">
-        <v>6160</v>
+        <v>6175</v>
       </c>
       <c r="C21" s="5">
-        <v>45756</v>
+        <v>45770</v>
       </c>
       <c r="D21" s="5">
-        <v>45756</v>
-      </c>
-      <c r="E21" s="10">
-        <v>2060</v>
+        <v>45764</v>
+      </c>
+      <c r="E21" s="33">
+        <v>3414.44</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>15</v>
@@ -1509,45 +1489,41 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B22" s="6">
-        <v>6162</v>
-      </c>
-      <c r="C22" s="5">
-        <v>45757</v>
+        <v>6174</v>
+      </c>
+      <c r="C22" s="94">
+        <v>45770</v>
       </c>
       <c r="D22" s="5">
-        <v>45757</v>
+        <v>45770</v>
       </c>
       <c r="E22" s="10">
-        <v>316.98</v>
+        <v>312.13</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="92" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="G22" s="67" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="6">
-        <v>6163</v>
-      </c>
-      <c r="C23" s="5">
-        <v>45757</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="5">
-        <v>45757</v>
-      </c>
-      <c r="E23" s="10">
-        <v>2832.5</v>
+        <v>45769</v>
+      </c>
+      <c r="E23" s="33">
+        <v>2188.62</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G23" s="67" t="s">
         <v>39</v>
@@ -1555,45 +1531,43 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="6">
-        <v>6164</v>
+        <v>6176</v>
       </c>
       <c r="C24" s="5">
-        <v>45762</v>
+        <v>45771</v>
       </c>
       <c r="D24" s="5">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="E24" s="10">
-        <v>318.25</v>
+        <v>78</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="92" t="s">
-        <v>37</v>
+      <c r="G24" s="90" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="6">
-        <v>6165</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="5">
-        <v>45762</v>
+        <v>45771</v>
       </c>
       <c r="D25" s="5">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="E25" s="10">
-        <v>17.170000000000002</v>
+        <v>473.69</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G25" s="67" t="s">
         <v>39</v>
@@ -1601,15 +1575,15 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="5">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="E26" s="10">
-        <v>6927</v>
+        <v>1191.45</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>15</v>
@@ -1620,15 +1594,15 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="5">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="E27" s="10">
-        <v>1412</v>
+        <v>1919</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>15</v>
@@ -1639,15 +1613,15 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="5">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="E28" s="10">
-        <v>460</v>
+        <v>862.5</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>15</v>
@@ -1658,15 +1632,15 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="5">
-        <v>45763</v>
+        <v>45772</v>
       </c>
       <c r="E29" s="10">
-        <v>508.54</v>
+        <v>520.19000000000005</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>15</v>
@@ -1677,159 +1651,85 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="E30" s="10">
-        <v>3360</v>
+        <v>75</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G30" s="67" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="5">
-        <v>45762</v>
-      </c>
-      <c r="E31" s="10">
-        <v>2569.5</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="6">
-        <v>6166</v>
-      </c>
-      <c r="C32" s="5">
-        <v>45763</v>
-      </c>
-      <c r="D32" s="5">
-        <v>45764</v>
-      </c>
-      <c r="E32" s="10">
-        <v>395.74</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="5">
-        <v>45763</v>
-      </c>
-      <c r="E33" s="10">
-        <v>785.5</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="5">
-        <v>45763</v>
-      </c>
-      <c r="E34" s="10">
-        <v>464.59</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="67"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="5">
-        <v>45763</v>
-      </c>
-      <c r="E35" s="33">
-        <v>555</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="67"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="5">
-        <v>45763</v>
-      </c>
-      <c r="E36" s="33">
-        <v>2091.9299999999998</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="5">
-        <v>45763</v>
-      </c>
-      <c r="E37" s="10">
-        <v>380</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38"/>
@@ -1948,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,7 +1903,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="6">
         <v>6145</v>
@@ -2021,43 +1921,30 @@
         <v>15</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="H2" s="6">
-        <v>6145</v>
+        <v>45196</v>
       </c>
       <c r="I2" s="5">
-        <v>45749</v>
+        <v>45748</v>
       </c>
       <c r="J2" s="5">
-        <v>45749</v>
+        <v>523.91</v>
       </c>
       <c r="K2" s="10">
-        <v>523.91</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="13">
-        <v>45196</v>
-      </c>
-      <c r="O2" s="25">
-        <v>45748</v>
-      </c>
-      <c r="P2" s="32">
-        <v>523.91</v>
-      </c>
-      <c r="Q2" s="88">
-        <f>P2-K2</f>
         <v>0</v>
       </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="6">
         <v>6137</v>
@@ -2075,39 +1962,26 @@
         <v>15</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H3" s="6">
-        <v>6137</v>
+        <v>2453</v>
       </c>
       <c r="I3" s="5">
-        <v>45736</v>
+        <v>45748</v>
       </c>
       <c r="J3" s="5">
-        <v>45750</v>
+        <v>608.77</v>
       </c>
       <c r="K3" s="10">
-        <v>608.73</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="13">
-        <v>2453</v>
-      </c>
-      <c r="O3" s="25">
-        <v>45748</v>
-      </c>
-      <c r="P3" s="32">
-        <v>608.77</v>
-      </c>
-      <c r="Q3" s="88">
-        <f t="shared" ref="Q3:Q34" si="0">P3-K3</f>
         <v>3.999999999996362E-2</v>
       </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2129,39 +2003,26 @@
         <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H4" s="6">
-        <v>6090</v>
+        <v>223958</v>
       </c>
       <c r="I4" s="5">
-        <v>45713</v>
+        <v>45737</v>
       </c>
       <c r="J4" s="5">
-        <v>45713</v>
+        <v>2554.52</v>
       </c>
       <c r="K4" s="10">
-        <v>2554.58</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="28">
-        <v>223958</v>
-      </c>
-      <c r="O4" s="29">
-        <v>45737</v>
-      </c>
-      <c r="P4" s="32">
-        <v>2554.52</v>
-      </c>
-      <c r="Q4" s="88">
-        <f t="shared" si="0"/>
         <v>-5.999999999994543E-2</v>
       </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="88"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2183,39 +2044,26 @@
         <v>41</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H5" s="6">
-        <v>6151</v>
+        <v>299851</v>
       </c>
       <c r="I5" s="5">
-        <v>45754</v>
+        <v>45751</v>
       </c>
       <c r="J5" s="5">
-        <v>45751</v>
+        <v>288.7</v>
       </c>
       <c r="K5" s="33">
-        <v>288.7</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="28">
-        <v>299851</v>
-      </c>
-      <c r="O5" s="29">
-        <v>45751</v>
-      </c>
-      <c r="P5" s="32">
-        <v>288.7</v>
-      </c>
-      <c r="Q5" s="88">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="88"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -2237,43 +2085,30 @@
         <v>15</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H6" s="6">
-        <v>6148</v>
+        <v>5821</v>
       </c>
       <c r="I6" s="5">
-        <v>45754</v>
+        <v>45751</v>
       </c>
       <c r="J6" s="5">
-        <v>45751</v>
+        <v>2672</v>
       </c>
       <c r="K6" s="33">
-        <v>2672</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="28">
-        <v>5821</v>
-      </c>
-      <c r="O6" s="29">
-        <v>45751</v>
-      </c>
-      <c r="P6" s="32">
-        <v>2672</v>
-      </c>
-      <c r="Q6" s="88">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="88"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="6">
         <v>6150</v>
@@ -2291,39 +2126,26 @@
         <v>15</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H7" s="6">
-        <v>6150</v>
+        <v>54189</v>
       </c>
       <c r="I7" s="5">
-        <v>45754</v>
+        <v>45751</v>
       </c>
       <c r="J7" s="5">
-        <v>45751</v>
+        <v>2151.25</v>
       </c>
       <c r="K7" s="33">
-        <v>2151.25</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="13">
-        <v>54189</v>
-      </c>
-      <c r="O7" s="25">
-        <v>45751</v>
-      </c>
-      <c r="P7" s="32">
-        <v>2151.25</v>
-      </c>
-      <c r="Q7" s="88">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="88"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2345,39 +2167,26 @@
         <v>15</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H8" s="6">
-        <v>6149</v>
+        <v>22370</v>
       </c>
       <c r="I8" s="5">
-        <v>45754</v>
+        <v>45751</v>
       </c>
       <c r="J8" s="5">
-        <v>45751</v>
+        <v>7003.63</v>
       </c>
       <c r="K8" s="33">
-        <v>7003.63</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="13">
-        <v>22370</v>
-      </c>
-      <c r="O8" s="25">
-        <v>45751</v>
-      </c>
-      <c r="P8" s="32">
-        <v>7003.63</v>
-      </c>
-      <c r="Q8" s="88">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -2399,39 +2208,26 @@
         <v>15</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H9" s="6">
-        <v>6154</v>
+        <v>121574</v>
       </c>
       <c r="I9" s="5">
-        <v>45755</v>
+        <v>45751</v>
       </c>
       <c r="J9" s="5">
-        <v>45751</v>
+        <v>6035.5</v>
       </c>
       <c r="K9" s="10">
-        <v>6035.5</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="13">
-        <v>121574</v>
-      </c>
-      <c r="O9" s="29">
-        <v>45751</v>
-      </c>
-      <c r="P9" s="14">
-        <v>6035.5</v>
-      </c>
-      <c r="Q9" s="88">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="88"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -2453,43 +2249,30 @@
         <v>15</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H10" s="6">
-        <v>6153</v>
+        <v>250847</v>
       </c>
       <c r="I10" s="5">
-        <v>45754</v>
+        <v>45748</v>
       </c>
       <c r="J10" s="5">
-        <v>45751</v>
+        <v>2745.5</v>
       </c>
       <c r="K10" s="10">
-        <v>2745.5</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="13">
-        <v>250847</v>
-      </c>
-      <c r="O10" s="29">
-        <v>45748</v>
-      </c>
-      <c r="P10" s="32">
-        <v>2745.5</v>
-      </c>
-      <c r="Q10" s="88">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="88"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="6">
         <v>6138</v>
@@ -2507,39 +2290,26 @@
         <v>41</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="H11" s="6">
-        <v>6138</v>
+        <v>333</v>
       </c>
       <c r="I11" s="5">
-        <v>45736</v>
+        <v>45754</v>
       </c>
       <c r="J11" s="5">
-        <v>45749</v>
+        <v>465</v>
       </c>
       <c r="K11" s="10">
-        <v>465</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="13">
-        <v>333</v>
-      </c>
-      <c r="O11" s="29">
-        <v>45754</v>
-      </c>
-      <c r="P11" s="32">
-        <v>465</v>
-      </c>
-      <c r="Q11" s="88">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="88"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -2561,43 +2331,30 @@
         <v>47</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H12" s="6">
-        <v>6152</v>
+        <v>8390</v>
       </c>
       <c r="I12" s="5">
-        <v>45754</v>
+        <v>45751</v>
       </c>
       <c r="J12" s="5">
-        <v>45751</v>
+        <v>2064.8000000000002</v>
       </c>
       <c r="K12" s="33">
-        <v>2064.8000000000002</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="13">
-        <v>8390</v>
-      </c>
-      <c r="O12" s="29">
-        <v>45751</v>
-      </c>
-      <c r="P12" s="32">
-        <v>2064.8000000000002</v>
-      </c>
-      <c r="Q12" s="88">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="88"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="6">
         <v>6146</v>
@@ -2615,43 +2372,30 @@
         <v>15</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H13" s="6">
-        <v>6146</v>
+        <v>1226</v>
       </c>
       <c r="I13" s="5">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="J13" s="5">
-        <v>45751</v>
+        <v>348</v>
       </c>
       <c r="K13" s="33">
-        <v>348</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="28">
-        <v>1226</v>
-      </c>
-      <c r="O13" s="29">
-        <v>45750</v>
-      </c>
-      <c r="P13" s="32">
-        <v>348</v>
-      </c>
-      <c r="Q13" s="88">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="88"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="6">
         <v>6158</v>
@@ -2669,39 +2413,26 @@
         <v>15</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H14" s="6">
-        <v>6158</v>
+        <v>195206</v>
       </c>
       <c r="I14" s="5">
-        <v>45756</v>
+        <v>45747</v>
       </c>
       <c r="J14" s="5">
-        <v>45755</v>
+        <v>1610</v>
       </c>
       <c r="K14" s="10">
-        <v>1610</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="28">
-        <v>195206</v>
-      </c>
-      <c r="O14" s="29">
-        <v>45747</v>
-      </c>
-      <c r="P14" s="32">
-        <v>1610</v>
-      </c>
-      <c r="Q14" s="88">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="88"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -2723,43 +2454,30 @@
         <v>41</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H15" s="6">
-        <v>6156</v>
+        <v>1383</v>
       </c>
       <c r="I15" s="5">
         <v>45755</v>
       </c>
       <c r="J15" s="5">
-        <v>45755</v>
+        <v>1820.07</v>
       </c>
       <c r="K15" s="10">
-        <v>1820.07</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" s="28">
-        <v>1383</v>
-      </c>
-      <c r="O15" s="29">
-        <v>45755</v>
-      </c>
-      <c r="P15" s="32">
-        <v>1820.07</v>
-      </c>
-      <c r="Q15" s="88">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="88"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="6">
         <v>6158</v>
@@ -2777,39 +2495,26 @@
         <v>15</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="H16" s="6">
-        <v>6158</v>
+        <v>45316</v>
       </c>
       <c r="I16" s="5">
-        <v>45756</v>
+        <v>45755</v>
       </c>
       <c r="J16" s="5">
-        <v>45756</v>
+        <v>496.06</v>
       </c>
       <c r="K16" s="10">
-        <v>496.06</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="28">
-        <v>45316</v>
-      </c>
-      <c r="O16" s="29">
-        <v>45755</v>
-      </c>
-      <c r="P16" s="32">
-        <v>496.06</v>
-      </c>
-      <c r="Q16" s="88">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="88"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -2831,764 +2536,772 @@
         <v>15</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H17" s="6">
-        <v>6157</v>
+        <v>15703</v>
       </c>
       <c r="I17" s="5">
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="J17" s="5">
-        <v>45755</v>
+        <v>420</v>
       </c>
       <c r="K17" s="33">
-        <v>420</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="88"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>6160</v>
+      </c>
+      <c r="C18">
+        <v>45756</v>
+      </c>
+      <c r="D18">
+        <v>45756</v>
+      </c>
+      <c r="E18">
+        <v>2060</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="28">
-        <v>15703</v>
-      </c>
-      <c r="O17" s="29">
-        <v>45754</v>
-      </c>
-      <c r="P17" s="32">
-        <v>420</v>
-      </c>
-      <c r="Q17" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H18" s="6">
-        <v>6160</v>
+        <v>121683</v>
       </c>
       <c r="I18" s="5">
         <v>45756</v>
       </c>
       <c r="J18" s="5">
-        <v>45756</v>
+        <v>2060</v>
       </c>
       <c r="K18" s="10">
-        <v>2060</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="88"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>6155</v>
+      </c>
+      <c r="C19">
+        <v>45755</v>
+      </c>
+      <c r="D19">
+        <v>45758</v>
+      </c>
+      <c r="E19">
+        <v>5752.04</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="28">
-        <v>121683</v>
-      </c>
-      <c r="O18" s="29">
-        <v>45756</v>
-      </c>
-      <c r="P18" s="32">
-        <v>2060</v>
-      </c>
-      <c r="Q18" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="H19" s="6">
-        <v>6155</v>
+        <v>516260</v>
       </c>
       <c r="I19" s="5">
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="J19" s="5">
-        <v>45758</v>
+        <v>3720.04</v>
       </c>
       <c r="K19" s="33">
-        <v>5752.04</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="6" t="s">
+        <v>-2032</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="30"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>6163</v>
+      </c>
+      <c r="C20">
+        <v>45757</v>
+      </c>
+      <c r="D20">
+        <v>45757</v>
+      </c>
+      <c r="E20">
+        <v>2832.5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="28">
-        <v>516260</v>
-      </c>
-      <c r="O19" s="29">
-        <v>45758</v>
-      </c>
-      <c r="P19" s="32">
-        <v>3720.04</v>
-      </c>
-      <c r="Q19" s="30">
-        <f t="shared" si="0"/>
-        <v>-2032</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="H20" s="6">
-        <v>6163</v>
+        <v>17679</v>
       </c>
       <c r="I20" s="5">
         <v>45757</v>
       </c>
       <c r="J20" s="5">
-        <v>45757</v>
+        <v>2832.5</v>
       </c>
       <c r="K20" s="10">
-        <v>2832.5</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="30"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>6147</v>
+      </c>
+      <c r="C21">
+        <v>45754</v>
+      </c>
+      <c r="D21">
+        <v>45762</v>
+      </c>
+      <c r="E21">
+        <v>976</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="28">
-        <v>17679</v>
-      </c>
-      <c r="O20" s="29">
-        <v>45757</v>
-      </c>
-      <c r="P20" s="32">
-        <v>2832.5</v>
-      </c>
-      <c r="Q20" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="H21" s="6">
-        <v>6147</v>
+        <v>205726</v>
       </c>
       <c r="I21" s="5">
-        <v>45754</v>
+        <v>45761</v>
       </c>
       <c r="J21" s="5">
-        <v>45762</v>
+        <v>974.23</v>
       </c>
       <c r="K21" s="10">
-        <v>976</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="28">
-        <v>205726</v>
-      </c>
-      <c r="O21" s="29">
-        <v>45761</v>
-      </c>
-      <c r="P21" s="14">
-        <v>974.23</v>
-      </c>
-      <c r="Q21" s="30">
-        <f t="shared" si="0"/>
         <v>-1.7699999999999818</v>
       </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="30"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22"/>
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22"/>
+      <c r="D22">
+        <v>45762</v>
+      </c>
       <c r="E22"/>
-      <c r="F22"/>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
       <c r="G22" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H22" s="6">
+        <v>25346</v>
+      </c>
+      <c r="I22" s="6">
+        <v>45758</v>
+      </c>
       <c r="J22" s="5">
-        <v>45762</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="28">
-        <v>25346</v>
-      </c>
-      <c r="O22" s="29">
-        <v>45758</v>
-      </c>
-      <c r="P22" s="14">
         <v>6927</v>
       </c>
-      <c r="Q22" s="30">
-        <f t="shared" si="0"/>
+      <c r="K22" s="10">
         <v>6927</v>
       </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23"/>
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23"/>
+      <c r="D23">
+        <v>45762</v>
+      </c>
       <c r="E23"/>
-      <c r="F23"/>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
       <c r="G23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H23" s="6">
+        <v>251386</v>
+      </c>
+      <c r="I23" s="6">
+        <v>45762</v>
+      </c>
       <c r="J23" s="5">
-        <v>45762</v>
-      </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="28">
-        <v>251386</v>
-      </c>
-      <c r="O23" s="29">
-        <v>45762</v>
-      </c>
-      <c r="P23" s="14">
         <v>1412</v>
       </c>
-      <c r="Q23" s="30">
-        <f t="shared" si="0"/>
+      <c r="K23" s="10">
         <v>1412</v>
       </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="30"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24"/>
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24"/>
+      <c r="D24">
+        <v>45762</v>
+      </c>
       <c r="E24"/>
-      <c r="F24"/>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
       <c r="G24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H24" s="6">
+        <v>17833</v>
+      </c>
+      <c r="I24" s="6">
+        <v>45762</v>
+      </c>
       <c r="J24" s="5">
-        <v>45762</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="28">
-        <v>17833</v>
-      </c>
-      <c r="O24" s="29">
-        <v>45762</v>
-      </c>
-      <c r="P24" s="14">
         <v>460</v>
       </c>
-      <c r="Q24" s="30">
-        <f t="shared" si="0"/>
+      <c r="K24" s="10">
         <v>460</v>
       </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="30"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25"/>
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25"/>
+      <c r="D25">
+        <v>45762</v>
+      </c>
       <c r="E25"/>
-      <c r="F25"/>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
       <c r="G25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H25" s="6">
+        <v>302119</v>
+      </c>
+      <c r="I25" s="6">
+        <v>45762</v>
+      </c>
       <c r="J25" s="5">
-        <v>45762</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="28">
-        <v>302119</v>
-      </c>
-      <c r="O25" s="29">
-        <v>45762</v>
-      </c>
-      <c r="P25" s="14">
         <v>508.54</v>
       </c>
-      <c r="Q25" s="30">
-        <f t="shared" si="0"/>
+      <c r="K25" s="10">
         <v>508.54</v>
       </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="30"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26"/>
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26"/>
+      <c r="D26">
+        <v>45762</v>
+      </c>
       <c r="E26"/>
-      <c r="F26"/>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
       <c r="G26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H26" s="6">
+        <v>121952</v>
+      </c>
+      <c r="I26" s="6">
+        <v>45762</v>
+      </c>
       <c r="J26" s="5">
-        <v>45762</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="28">
-        <v>121952</v>
-      </c>
-      <c r="O26" s="29">
-        <v>45762</v>
-      </c>
-      <c r="P26" s="14">
         <v>3360</v>
       </c>
-      <c r="Q26" s="30">
-        <f t="shared" si="0"/>
+      <c r="K26" s="10">
         <v>3360</v>
       </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="30"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27"/>
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27"/>
+      <c r="D27">
+        <v>45762</v>
+      </c>
       <c r="E27"/>
-      <c r="F27"/>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
       <c r="G27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H27" s="6">
+        <v>11515</v>
+      </c>
+      <c r="I27" s="6">
+        <v>45762</v>
+      </c>
       <c r="J27" s="5">
+        <v>2509.5</v>
+      </c>
+      <c r="K27" s="10">
+        <v>2509.5</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="30"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <v>6165</v>
+      </c>
+      <c r="C28">
         <v>45762</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="28">
-        <v>11515</v>
-      </c>
-      <c r="O27" s="29">
+      <c r="D28">
         <v>45762</v>
       </c>
-      <c r="P27" s="14">
-        <v>2509.5</v>
-      </c>
-      <c r="Q27" s="30">
-        <f t="shared" si="0"/>
-        <v>2509.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
+      <c r="E28">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
       <c r="G28" s="6" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="H28" s="6">
-        <v>6165</v>
+        <v>981.2</v>
       </c>
       <c r="I28" s="5">
         <v>45762</v>
       </c>
       <c r="J28" s="5">
-        <v>45762</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="K28" s="10">
-        <v>17.170000000000002</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N28" s="28">
-        <v>981.2</v>
-      </c>
-      <c r="O28" s="29">
-        <v>45762</v>
-      </c>
-      <c r="P28" s="14">
-        <v>17.170000000000002</v>
-      </c>
-      <c r="Q28" s="30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="30"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29"/>
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29"/>
+      <c r="D29">
+        <v>45763</v>
+      </c>
       <c r="E29"/>
-      <c r="F29"/>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
       <c r="G29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H29" s="6">
+        <v>54404</v>
+      </c>
+      <c r="I29" s="6">
+        <v>45763</v>
+      </c>
       <c r="J29" s="5">
-        <v>45763</v>
-      </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="28">
-        <v>54404</v>
-      </c>
-      <c r="O29" s="29">
-        <v>45763</v>
-      </c>
-      <c r="P29" s="14">
         <v>785.5</v>
       </c>
-      <c r="Q29" s="30">
-        <f t="shared" si="0"/>
+      <c r="K29" s="10">
         <v>785.5</v>
       </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="30"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30"/>
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30"/>
+      <c r="D30">
+        <v>45763</v>
+      </c>
       <c r="E30"/>
-      <c r="F30"/>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
       <c r="G30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H30" s="6">
+        <v>302336</v>
+      </c>
+      <c r="I30" s="6">
+        <v>45763</v>
+      </c>
       <c r="J30" s="5">
-        <v>45763</v>
-      </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N30" s="28">
-        <v>302336</v>
-      </c>
-      <c r="O30" s="29">
-        <v>45763</v>
-      </c>
-      <c r="P30" s="14">
         <v>464.59</v>
       </c>
-      <c r="Q30" s="30">
-        <f t="shared" si="0"/>
+      <c r="K30" s="10">
         <v>464.59</v>
       </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="30"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31"/>
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31"/>
+      <c r="D31">
+        <v>45763</v>
+      </c>
       <c r="E31"/>
-      <c r="F31"/>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
       <c r="G31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H31" s="6">
+        <v>5899</v>
+      </c>
+      <c r="I31" s="6">
+        <v>45763</v>
+      </c>
       <c r="J31" s="5">
-        <v>45763</v>
-      </c>
-      <c r="K31" s="33"/>
-      <c r="L31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" s="28">
-        <v>5899</v>
-      </c>
-      <c r="O31" s="29">
-        <v>45763</v>
-      </c>
-      <c r="P31" s="14">
         <v>555</v>
       </c>
-      <c r="Q31" s="30">
-        <f t="shared" si="0"/>
+      <c r="K31" s="33">
         <v>555</v>
       </c>
+      <c r="L31" s="13"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="30"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32"/>
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32"/>
+      <c r="D32">
+        <v>45763</v>
+      </c>
       <c r="E32"/>
-      <c r="F32"/>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
       <c r="G32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H32" s="6">
+        <v>23107</v>
+      </c>
+      <c r="I32" s="6">
+        <v>45763</v>
+      </c>
       <c r="J32" s="5">
+        <v>2091.9299999999998</v>
+      </c>
+      <c r="K32" s="33">
+        <v>2091.9299999999998</v>
+      </c>
+      <c r="L32" s="13"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="30"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>6166</v>
+      </c>
+      <c r="C33">
         <v>45763</v>
       </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M32" s="6" t="s">
+      <c r="D33">
+        <v>45764</v>
+      </c>
+      <c r="E33">
+        <v>395.74</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="28">
-        <v>23107</v>
-      </c>
-      <c r="O32" s="29">
-        <v>45763</v>
-      </c>
-      <c r="P32" s="14">
-        <v>2091.9299999999998</v>
-      </c>
-      <c r="Q32" s="30">
-        <f t="shared" si="0"/>
-        <v>2091.9299999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="H33" s="6">
-        <v>6166</v>
+        <v>45423</v>
       </c>
       <c r="I33" s="5">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="J33" s="5">
-        <v>45764</v>
+        <v>395.74</v>
       </c>
       <c r="K33" s="10">
-        <v>395.74</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" s="28">
-        <v>45423</v>
-      </c>
-      <c r="O33" s="29">
-        <v>45762</v>
-      </c>
-      <c r="P33" s="14">
-        <v>395.74</v>
-      </c>
-      <c r="Q33" s="30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L33" s="13"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="30"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34"/>
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34"/>
+      <c r="D34">
+        <v>45763</v>
+      </c>
       <c r="E34"/>
-      <c r="F34"/>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
       <c r="G34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H34" s="6">
+        <v>7884</v>
+      </c>
+      <c r="I34" s="6">
+        <v>45762</v>
+      </c>
       <c r="J34" s="5">
-        <v>45763</v>
+        <v>380</v>
       </c>
       <c r="K34" s="10">
         <v>380</v>
       </c>
-      <c r="L34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M34" s="6" t="s">
+      <c r="L34" s="13"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="30"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>6167</v>
+      </c>
+      <c r="C35">
+        <v>45763</v>
+      </c>
+      <c r="D35">
+        <v>45764</v>
+      </c>
+      <c r="E35">
+        <v>2500</v>
+      </c>
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35">
+        <v>6532</v>
+      </c>
+      <c r="I35">
+        <v>45764</v>
+      </c>
+      <c r="J35">
+        <v>2500</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>6170</v>
+      </c>
+      <c r="C36">
+        <v>45764</v>
+      </c>
+      <c r="D36">
+        <v>45764</v>
+      </c>
+      <c r="E36">
+        <v>408</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="28">
-        <v>7884</v>
-      </c>
-      <c r="O34" s="29">
-        <v>45762</v>
-      </c>
-      <c r="P34" s="14">
-        <v>380</v>
-      </c>
-      <c r="Q34" s="30">
-        <f t="shared" si="0"/>
+      <c r="H36">
+        <v>1240</v>
+      </c>
+      <c r="I36">
+        <v>45763</v>
+      </c>
+      <c r="J36">
+        <v>408</v>
+      </c>
+      <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="6">
-        <v>6132</v>
-      </c>
-      <c r="C37" s="5">
-        <v>45735</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="5">
-        <v>45734</v>
-      </c>
-      <c r="E37" s="10">
-        <v>2000</v>
-      </c>
+        <v>45764</v>
+      </c>
+      <c r="E37" s="10"/>
       <c r="F37" s="13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H37" s="28">
-        <v>6132</v>
+        <v>246457</v>
       </c>
       <c r="I37" s="29">
-        <v>45734</v>
+        <v>45763</v>
       </c>
       <c r="J37" s="14">
-        <v>2000</v>
-      </c>
-      <c r="K37" s="30"/>
+        <v>3414.44</v>
+      </c>
+      <c r="K37" s="30">
+        <v>3414.44</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B38" s="6">
-        <v>6129</v>
+        <v>6174</v>
       </c>
       <c r="C38" s="5">
-        <v>45733</v>
+        <v>45770</v>
       </c>
       <c r="D38" s="5">
-        <v>45735</v>
+        <v>45770</v>
       </c>
       <c r="E38" s="10">
-        <v>612.21</v>
+        <v>312.13</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>15</v>
@@ -3597,131 +3310,117 @@
         <v>31</v>
       </c>
       <c r="H38" s="28">
-        <v>245906</v>
+        <v>45484</v>
       </c>
       <c r="I38" s="29">
-        <v>45734</v>
+        <v>45769</v>
       </c>
       <c r="J38" s="14">
-        <v>585</v>
-      </c>
-      <c r="K38" s="30"/>
+        <v>312.13</v>
+      </c>
+      <c r="K38" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="6">
-        <v>6130</v>
-      </c>
-      <c r="C39" s="5">
-        <v>45735</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="5">
-        <v>45735</v>
-      </c>
-      <c r="E39" s="10">
-        <v>501.63</v>
-      </c>
+        <v>45769</v>
+      </c>
+      <c r="E39" s="10"/>
       <c r="F39" s="13" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H39" s="28">
-        <v>44999</v>
+        <v>1445</v>
       </c>
       <c r="I39" s="29">
-        <v>45734</v>
+        <v>45769</v>
       </c>
       <c r="J39" s="14">
-        <v>501.63</v>
-      </c>
-      <c r="K39" s="30"/>
+        <v>2188.62</v>
+      </c>
+      <c r="K39" s="30">
+        <v>2188.62</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="6">
-        <v>6116</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B40" s="6"/>
       <c r="C40" s="5">
-        <v>45728</v>
+        <v>45771</v>
       </c>
       <c r="D40" s="5">
-        <v>45734</v>
-      </c>
-      <c r="E40" s="10">
-        <v>535</v>
-      </c>
+        <v>45772</v>
+      </c>
+      <c r="E40" s="10"/>
       <c r="F40" s="13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H40" s="28">
-        <v>10268</v>
+        <v>1817372</v>
       </c>
       <c r="I40" s="29">
-        <v>45734</v>
+        <v>45771</v>
       </c>
       <c r="J40" s="14">
-        <v>592</v>
-      </c>
-      <c r="K40" s="30"/>
+        <v>473.69</v>
+      </c>
+      <c r="K40" s="30">
+        <v>473.69</v>
+      </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="6">
-        <v>6117</v>
-      </c>
-      <c r="C41" s="5">
-        <v>45728</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="5">
-        <v>45734</v>
-      </c>
-      <c r="E41" s="10">
-        <v>535</v>
-      </c>
+        <v>45772</v>
+      </c>
+      <c r="E41" s="10"/>
       <c r="F41" s="13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H41" s="28">
-        <v>10267</v>
+        <v>23519</v>
       </c>
       <c r="I41" s="29">
-        <v>45733</v>
+        <v>45771</v>
       </c>
       <c r="J41" s="14">
-        <v>535</v>
-      </c>
-      <c r="K41" s="30"/>
+        <v>1191.45</v>
+      </c>
+      <c r="K41" s="30">
+        <v>1191.45</v>
+      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="6">
-        <v>6123</v>
-      </c>
-      <c r="C42" s="5">
-        <v>45733</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="5">
-        <v>45733</v>
-      </c>
-      <c r="E42" s="10">
-        <v>540</v>
-      </c>
+        <v>45772</v>
+      </c>
+      <c r="E42" s="10"/>
       <c r="F42" s="13" t="s">
         <v>15</v>
       </c>
@@ -3729,32 +3428,28 @@
         <v>31</v>
       </c>
       <c r="H42" s="28">
-        <v>5751</v>
+        <v>122241</v>
       </c>
       <c r="I42" s="29">
-        <v>45728</v>
+        <v>45772</v>
       </c>
       <c r="J42" s="14">
-        <v>540</v>
-      </c>
-      <c r="K42" s="30"/>
+        <v>1919</v>
+      </c>
+      <c r="K42" s="30">
+        <v>1919</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="6">
-        <v>6131</v>
-      </c>
-      <c r="C43" s="5">
-        <v>45735</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="5">
-        <v>45735</v>
-      </c>
-      <c r="E43" s="10">
-        <v>348</v>
-      </c>
+        <v>45772</v>
+      </c>
+      <c r="E43" s="10"/>
       <c r="F43" s="13" t="s">
         <v>15</v>
       </c>
@@ -3762,32 +3457,28 @@
         <v>31</v>
       </c>
       <c r="H43" s="28">
-        <v>1208</v>
+        <v>251701</v>
       </c>
       <c r="I43" s="29">
-        <v>45735</v>
+        <v>45771</v>
       </c>
       <c r="J43" s="14">
-        <v>348</v>
-      </c>
-      <c r="K43" s="30"/>
+        <v>862.5</v>
+      </c>
+      <c r="K43" s="30">
+        <v>862.5</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="6">
-        <v>6141</v>
-      </c>
-      <c r="C44" s="5">
-        <v>45740</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="5">
-        <v>45740</v>
-      </c>
-      <c r="E44" s="10">
-        <v>690.5</v>
-      </c>
+        <v>45772</v>
+      </c>
+      <c r="E44" s="10"/>
       <c r="F44" s="13" t="s">
         <v>15</v>
       </c>
@@ -3795,178 +3486,142 @@
         <v>31</v>
       </c>
       <c r="H44" s="28">
-        <v>250418</v>
+        <v>303751</v>
       </c>
       <c r="I44" s="29">
-        <v>45737</v>
+        <v>45772</v>
       </c>
       <c r="J44" s="14">
-        <v>690.5</v>
-      </c>
-      <c r="K44" s="30"/>
+        <v>520.19000000000005</v>
+      </c>
+      <c r="K44" s="30">
+        <v>520.19000000000005</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="6">
-        <v>6139</v>
-      </c>
-      <c r="C45" s="5">
-        <v>45740</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="5">
-        <v>45740</v>
-      </c>
-      <c r="E45" s="10">
-        <v>2568</v>
-      </c>
+        <v>45772</v>
+      </c>
+      <c r="E45" s="10"/>
       <c r="F45" s="13" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="H45" s="28">
-        <v>21487</v>
+        <v>21746</v>
       </c>
       <c r="I45" s="29">
-        <v>45740</v>
+        <v>45771</v>
       </c>
       <c r="J45" s="14">
-        <v>2568</v>
-      </c>
-      <c r="K45" s="30"/>
+        <v>75</v>
+      </c>
+      <c r="K45" s="30">
+        <v>75</v>
+      </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B46" s="6">
-        <v>6140</v>
+        <v>6162</v>
       </c>
       <c r="C46" s="5">
-        <v>45740</v>
+        <v>45757</v>
       </c>
       <c r="D46" s="5">
-        <v>45740</v>
+        <v>45772</v>
       </c>
       <c r="E46" s="10">
-        <v>240</v>
+        <v>373.14</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>31</v>
       </c>
       <c r="H46" s="28">
-        <v>17689</v>
+        <v>10424</v>
       </c>
       <c r="I46" s="29">
-        <v>45740</v>
+        <v>45771</v>
       </c>
       <c r="J46" s="14">
-        <v>240</v>
-      </c>
-      <c r="K46" s="30"/>
+        <v>105</v>
+      </c>
+      <c r="K46" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="6">
-        <v>6143</v>
-      </c>
-      <c r="C47" s="5">
-        <v>45742</v>
-      </c>
-      <c r="D47" s="5">
-        <v>45742</v>
-      </c>
-      <c r="E47" s="10">
-        <v>476.3</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="26" t="s">
         <v>31</v>
       </c>
       <c r="H47" s="28">
-        <v>45101</v>
+        <v>123874</v>
       </c>
       <c r="I47" s="29">
-        <v>45741</v>
+        <v>45769</v>
       </c>
       <c r="J47" s="14">
-        <v>476.3</v>
+        <v>56.55</v>
       </c>
       <c r="K47" s="30"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="6">
-        <v>6142</v>
-      </c>
-      <c r="C48" s="5">
-        <v>45742</v>
-      </c>
-      <c r="D48" s="5">
-        <v>45743</v>
-      </c>
-      <c r="E48" s="10">
-        <v>593.28</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="13"/>
       <c r="G48" s="26" t="s">
         <v>31</v>
       </c>
       <c r="H48" s="28">
-        <v>246858</v>
+        <v>35075</v>
       </c>
       <c r="I48" s="29">
-        <v>45742</v>
+        <v>45769</v>
       </c>
       <c r="J48" s="14">
-        <v>593.28</v>
+        <v>78.59</v>
       </c>
       <c r="K48" s="30"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="6">
-        <v>6113</v>
-      </c>
-      <c r="C49" s="5">
-        <v>45728</v>
-      </c>
-      <c r="D49" s="5">
-        <v>45744</v>
-      </c>
-      <c r="E49" s="10">
-        <v>551.20000000000005</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="13"/>
       <c r="G49" s="26" t="s">
         <v>31</v>
       </c>
       <c r="H49" s="28">
-        <v>205068</v>
+        <v>100953</v>
       </c>
       <c r="I49" s="29">
-        <v>45743</v>
+        <v>45769</v>
       </c>
       <c r="J49" s="14">
-        <v>551.23</v>
+        <v>133</v>
       </c>
       <c r="K49" s="30"/>
     </row>
@@ -4015,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2DA0E4-CCDD-4F72-A41B-CCB2EC005DCE}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4701,92 +4356,148 @@
       <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
+      <c r="A32" s="68" t="s">
+        <v>73</v>
+      </c>
       <c r="B32" s="82"/>
-      <c r="C32" s="77"/>
+      <c r="C32" s="77">
+        <v>45764</v>
+      </c>
       <c r="D32" s="77"/>
-      <c r="E32" s="75"/>
+      <c r="E32" s="75">
+        <v>2500</v>
+      </c>
       <c r="F32" s="71"/>
       <c r="G32" s="69"/>
-      <c r="H32" s="72"/>
+      <c r="H32" s="72">
+        <v>6379</v>
+      </c>
       <c r="I32" s="73"/>
       <c r="J32" s="74"/>
       <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
+      <c r="A33" s="68" t="s">
+        <v>52</v>
+      </c>
       <c r="B33" s="82"/>
-      <c r="C33" s="77"/>
+      <c r="C33" s="77">
+        <v>45764</v>
+      </c>
       <c r="D33" s="77"/>
-      <c r="E33" s="75"/>
+      <c r="E33" s="75">
+        <v>252.8</v>
+      </c>
       <c r="F33" s="71"/>
       <c r="G33" s="69"/>
-      <c r="H33" s="72"/>
+      <c r="H33" s="72">
+        <v>6378</v>
+      </c>
       <c r="I33" s="73"/>
       <c r="J33" s="74"/>
       <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
+      <c r="A34" s="68" t="s">
+        <v>48</v>
+      </c>
       <c r="B34" s="82"/>
-      <c r="C34" s="77"/>
+      <c r="C34" s="77">
+        <v>45769</v>
+      </c>
       <c r="D34" s="77"/>
-      <c r="E34" s="75"/>
+      <c r="E34" s="75">
+        <v>71</v>
+      </c>
       <c r="F34" s="71"/>
       <c r="G34" s="69"/>
-      <c r="H34" s="72"/>
+      <c r="H34" s="72">
+        <v>6389</v>
+      </c>
       <c r="I34" s="73"/>
       <c r="J34" s="83"/>
       <c r="K34" s="71"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
+      <c r="A35" s="68" t="s">
+        <v>24</v>
+      </c>
       <c r="B35" s="82"/>
-      <c r="C35" s="77"/>
+      <c r="C35" s="77">
+        <v>45770</v>
+      </c>
       <c r="D35" s="77"/>
-      <c r="E35" s="75"/>
+      <c r="E35" s="75">
+        <v>317.5</v>
+      </c>
       <c r="F35" s="71"/>
       <c r="G35" s="69"/>
-      <c r="H35" s="72"/>
+      <c r="H35" s="72">
+        <v>6395</v>
+      </c>
       <c r="I35" s="73"/>
       <c r="J35" s="74"/>
       <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
+      <c r="A36" s="68" t="s">
+        <v>17</v>
+      </c>
       <c r="B36" s="82"/>
-      <c r="C36" s="77"/>
+      <c r="C36" s="77">
+        <v>45770</v>
+      </c>
       <c r="D36" s="77"/>
-      <c r="E36" s="75"/>
+      <c r="E36" s="75">
+        <v>310</v>
+      </c>
       <c r="F36" s="76"/>
       <c r="G36" s="76"/>
-      <c r="H36" s="72"/>
+      <c r="H36" s="72">
+        <v>6394</v>
+      </c>
       <c r="I36" s="79"/>
       <c r="J36" s="68"/>
       <c r="K36" s="80"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
+      <c r="A37" s="68" t="s">
+        <v>17</v>
+      </c>
       <c r="B37" s="82"/>
-      <c r="C37" s="77"/>
+      <c r="C37" s="77">
+        <v>45770</v>
+      </c>
       <c r="D37" s="77"/>
-      <c r="E37" s="75"/>
+      <c r="E37" s="75">
+        <v>170</v>
+      </c>
       <c r="F37" s="76"/>
       <c r="G37" s="76"/>
-      <c r="H37" s="72"/>
+      <c r="H37" s="72">
+        <v>6393</v>
+      </c>
       <c r="I37" s="73"/>
       <c r="J37" s="74"/>
       <c r="K37" s="41"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="68"/>
+      <c r="A38" s="68" t="s">
+        <v>74</v>
+      </c>
       <c r="B38" s="82"/>
-      <c r="C38" s="77"/>
+      <c r="C38" s="77">
+        <v>45770</v>
+      </c>
       <c r="D38" s="77"/>
-      <c r="E38" s="75"/>
+      <c r="E38" s="75">
+        <v>440</v>
+      </c>
       <c r="F38" s="76"/>
       <c r="G38" s="76"/>
-      <c r="H38" s="77"/>
+      <c r="H38" s="77">
+        <v>6392</v>
+      </c>
       <c r="I38" s="73"/>
       <c r="J38" s="75"/>
       <c r="K38" s="41"/>

--- a/data/compras.xlsx
+++ b/data/compras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxmi\OneDrive\Documentos\PROJETOS - Em andamento\Projeto Financeiro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60917A93-B267-4BCF-B237-4C55907C9691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF16BC6-EACD-4E6B-884A-BE6C63079D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" tabRatio="601" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS PENDENTES" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
   <si>
     <t>FORNECEDOR</t>
   </si>
@@ -157,9 +157,6 @@
     <t xml:space="preserve">ABATIMENTO </t>
   </si>
   <si>
-    <t>PENDENTE</t>
-  </si>
-  <si>
     <t>RECIBO</t>
   </si>
   <si>
@@ -172,12 +169,6 @@
     <t>TRANSFERENCIA</t>
   </si>
   <si>
-    <t xml:space="preserve">KOBBER </t>
-  </si>
-  <si>
-    <t>LINEA</t>
-  </si>
-  <si>
     <t xml:space="preserve">JOEL CASTANHAS </t>
   </si>
   <si>
@@ -208,12 +199,6 @@
     <t xml:space="preserve">MERCADO LIVRE </t>
   </si>
   <si>
-    <t xml:space="preserve">PLASTMAN </t>
-  </si>
-  <si>
-    <t>TET</t>
-  </si>
-  <si>
     <t xml:space="preserve">JTC </t>
   </si>
   <si>
@@ -223,52 +208,31 @@
     <t xml:space="preserve">BANANAS NATURAIS </t>
   </si>
   <si>
-    <t xml:space="preserve">TRIPHALA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIOLENA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MELIFLUA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JJL PLASTIC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALCA FOODS </t>
-  </si>
-  <si>
-    <t>ABV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M&amp;B EMBALAGENS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANTA FILOMENA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REI TERRA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SÃO VITO </t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WNF </t>
-  </si>
-  <si>
-    <t>MAXNUTRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECIBO </t>
-  </si>
-  <si>
     <t>NE</t>
   </si>
   <si>
     <t>NE IMPORTADORA E DISTRIBUIDORA ALIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATIVOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOIDEAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRI </t>
+  </si>
+  <si>
+    <t>BONIFICAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEGRALMEDICA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TET </t>
   </si>
 </sst>
 </file>
@@ -1020,8 +984,8 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1002,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>5</v>
@@ -1061,277 +1025,273 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B2" s="6">
-        <v>6162</v>
+        <v>6108</v>
       </c>
       <c r="C2" s="5">
-        <v>45757</v>
+        <v>45726</v>
       </c>
       <c r="D2" s="5">
-        <v>45772</v>
+        <v>45726</v>
       </c>
       <c r="E2" s="10">
-        <v>373.14</v>
+        <v>3460.5</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="67" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B3" s="6">
-        <v>6163</v>
+        <v>6169</v>
       </c>
       <c r="C3" s="5">
-        <v>45757</v>
+        <v>45764</v>
       </c>
       <c r="D3" s="5">
-        <v>45757</v>
+        <v>45764</v>
       </c>
       <c r="E3" s="10">
-        <v>2832.5</v>
+        <v>473.94</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B4" s="6">
-        <v>6164</v>
+        <v>6180</v>
       </c>
       <c r="C4" s="5">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="D4" s="5">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="E4" s="10">
-        <v>318.25</v>
+        <v>2873.75</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G4" s="92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6">
-        <v>6165</v>
+        <v>6182</v>
       </c>
       <c r="C5" s="5">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="D5" s="5">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="E5" s="10">
-        <v>17.170000000000002</v>
+        <v>1854.09</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6183</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45783</v>
+      </c>
       <c r="D6" s="5">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="E6" s="10">
-        <v>6927</v>
+        <v>360</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="6">
-        <v>6168</v>
-      </c>
-      <c r="C7" s="5">
-        <v>45764</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="E7" s="10">
-        <v>1412</v>
+        <v>2736.55</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B8" s="6">
-        <v>2204</v>
+        <v>6184</v>
       </c>
       <c r="C8" s="5">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="D8" s="5">
-        <v>45762</v>
+        <v>45784</v>
       </c>
       <c r="E8" s="10">
-        <v>460</v>
+        <v>562.92999999999995</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="5">
-        <v>45763</v>
+        <v>45784</v>
       </c>
       <c r="E9" s="10">
-        <v>508.54</v>
+        <v>4758.3999999999996</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="93" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5">
-        <v>45762</v>
+        <v>45784</v>
       </c>
       <c r="E10" s="10">
-        <v>3360</v>
+        <v>80.7</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="5">
-        <v>45762</v>
+        <v>45784</v>
       </c>
       <c r="E11" s="10">
-        <v>2569.5</v>
+        <v>37400.959999999999</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="6">
-        <v>6166</v>
-      </c>
-      <c r="C12" s="5">
-        <v>45763</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="E12" s="10">
-        <v>395.74</v>
+        <v>1433.25</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="5">
-        <v>45763</v>
+        <v>45784</v>
       </c>
       <c r="E13" s="10">
-        <v>785.5</v>
+        <v>5091.68</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="5">
-        <v>45763</v>
+        <v>45784</v>
       </c>
       <c r="E14" s="10">
-        <v>464.59</v>
+        <v>487.65</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G14" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1341,332 +1301,182 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="5">
-        <v>45763</v>
+        <v>45784</v>
       </c>
       <c r="E15" s="33">
-        <v>555</v>
+        <v>5251.84</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="6">
-        <v>6171</v>
-      </c>
-      <c r="C16" s="5">
-        <v>45764</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <v>45763</v>
+        <v>45784</v>
       </c>
       <c r="E16" s="33">
-        <v>2091.9299999999998</v>
+        <v>11539</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="5">
-        <v>45763</v>
+        <v>45784</v>
       </c>
       <c r="E17" s="10">
-        <v>380</v>
+        <v>4588</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G17" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="6">
-        <v>6167</v>
-      </c>
-      <c r="C18" s="5">
-        <v>45763</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="5">
-        <v>45764</v>
+        <v>45784</v>
       </c>
       <c r="E18" s="10">
-        <v>2500</v>
+        <v>4797</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G18" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="6">
-        <v>6169</v>
-      </c>
-      <c r="C19" s="5">
-        <v>45764</v>
-      </c>
-      <c r="D19" s="5">
-        <v>45764</v>
-      </c>
-      <c r="E19" s="33">
-        <v>473.94</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="90" t="s">
-        <v>45</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="6">
-        <v>6170</v>
-      </c>
-      <c r="C20" s="5">
-        <v>45764</v>
-      </c>
-      <c r="D20" s="5">
-        <v>45764</v>
-      </c>
-      <c r="E20" s="10">
-        <v>408</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="67"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="6">
-        <v>6175</v>
-      </c>
-      <c r="C21" s="5">
-        <v>45770</v>
-      </c>
-      <c r="D21" s="5">
-        <v>45764</v>
-      </c>
-      <c r="E21" s="33">
-        <v>3414.44</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="67"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="6">
-        <v>6174</v>
-      </c>
-      <c r="C22" s="94">
-        <v>45770</v>
-      </c>
-      <c r="D22" s="5">
-        <v>45770</v>
-      </c>
-      <c r="E22" s="10">
-        <v>312.13</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="67"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="5">
-        <v>45769</v>
-      </c>
-      <c r="E23" s="33">
-        <v>2188.62</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="67"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="6">
-        <v>6176</v>
-      </c>
-      <c r="C24" s="5">
-        <v>45771</v>
-      </c>
-      <c r="D24" s="5">
-        <v>45772</v>
-      </c>
-      <c r="E24" s="10">
-        <v>78</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="90" t="s">
-        <v>45</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="5">
-        <v>45771</v>
-      </c>
-      <c r="D25" s="5">
-        <v>45772</v>
-      </c>
-      <c r="E25" s="10">
-        <v>473.69</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="5">
-        <v>45772</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1191.45</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="5">
-        <v>45772</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1919</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="67"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="5">
-        <v>45772</v>
-      </c>
-      <c r="E28" s="10">
-        <v>862.5</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="5">
-        <v>45772</v>
-      </c>
-      <c r="E29" s="10">
-        <v>520.19000000000005</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="5">
-        <v>45772</v>
-      </c>
-      <c r="E30" s="10">
-        <v>75</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="67" t="s">
-        <v>39</v>
-      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -1848,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,16 +1716,16 @@
         <v>57</v>
       </c>
       <c r="B2" s="6">
-        <v>6145</v>
+        <v>6180</v>
       </c>
       <c r="C2" s="5">
-        <v>45749</v>
+        <v>45777</v>
       </c>
       <c r="D2" s="5">
-        <v>45749</v>
+        <v>45782</v>
       </c>
       <c r="E2" s="10">
-        <v>523.91</v>
+        <v>2873.75</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>15</v>
@@ -1924,17 +1734,15 @@
         <v>31</v>
       </c>
       <c r="H2" s="6">
-        <v>45196</v>
+        <v>158792</v>
       </c>
       <c r="I2" s="5">
-        <v>45748</v>
+        <v>45772</v>
       </c>
       <c r="J2" s="5">
-        <v>523.91</v>
-      </c>
-      <c r="K2" s="10">
-        <v>0</v>
-      </c>
+        <v>2873.75</v>
+      </c>
+      <c r="K2" s="10"/>
       <c r="L2" s="13"/>
       <c r="M2" s="6"/>
       <c r="N2" s="13"/>
@@ -1944,38 +1752,36 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6">
-        <v>6137</v>
+        <v>6182</v>
       </c>
       <c r="C3" s="5">
-        <v>45736</v>
+        <v>45783</v>
       </c>
       <c r="D3" s="5">
-        <v>45750</v>
+        <v>45783</v>
       </c>
       <c r="E3" s="10">
-        <v>608.73</v>
+        <v>1854.09</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H3" s="6">
-        <v>2453</v>
+        <v>1505</v>
       </c>
       <c r="I3" s="5">
-        <v>45748</v>
+        <v>45783</v>
       </c>
       <c r="J3" s="5">
-        <v>608.77</v>
-      </c>
-      <c r="K3" s="10">
-        <v>3.999999999996362E-2</v>
-      </c>
+        <v>1854.09</v>
+      </c>
+      <c r="K3" s="10"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
       <c r="N3" s="13"/>
@@ -1985,19 +1791,19 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B4" s="6">
-        <v>6090</v>
+        <v>6183</v>
       </c>
       <c r="C4" s="5">
-        <v>45713</v>
+        <v>45783</v>
       </c>
       <c r="D4" s="5">
-        <v>45713</v>
+        <v>45779</v>
       </c>
       <c r="E4" s="10">
-        <v>2554.58</v>
+        <v>360</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>15</v>
@@ -2006,17 +1812,15 @@
         <v>31</v>
       </c>
       <c r="H4" s="6">
-        <v>223958</v>
+        <v>1252</v>
       </c>
       <c r="I4" s="5">
-        <v>45737</v>
+        <v>45778</v>
       </c>
       <c r="J4" s="5">
-        <v>2554.52</v>
-      </c>
-      <c r="K4" s="10">
-        <v>-5.999999999994543E-2</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="K4" s="10"/>
       <c r="L4" s="13"/>
       <c r="M4" s="6"/>
       <c r="N4" s="28"/>
@@ -2026,38 +1830,30 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="6">
-        <v>6151</v>
-      </c>
-      <c r="C5" s="5">
-        <v>45754</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="5">
-        <v>45751</v>
-      </c>
-      <c r="E5" s="33">
-        <v>288.7</v>
-      </c>
+        <v>45782</v>
+      </c>
+      <c r="E5" s="33"/>
       <c r="F5" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="6">
-        <v>299851</v>
+        <v>2078</v>
       </c>
       <c r="I5" s="5">
-        <v>45751</v>
+        <v>45779</v>
       </c>
       <c r="J5" s="5">
-        <v>288.7</v>
-      </c>
-      <c r="K5" s="33">
-        <v>0</v>
-      </c>
+        <v>2736.55</v>
+      </c>
+      <c r="K5" s="33"/>
       <c r="L5" s="13"/>
       <c r="M5" s="6"/>
       <c r="N5" s="28"/>
@@ -2067,19 +1863,19 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6">
-        <v>6148</v>
+        <v>6184</v>
       </c>
       <c r="C6" s="5">
-        <v>45754</v>
+        <v>45784</v>
       </c>
       <c r="D6" s="5">
-        <v>45751</v>
+        <v>45784</v>
       </c>
       <c r="E6" s="33">
-        <v>2672</v>
+        <v>562.92999999999995</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>15</v>
@@ -2088,17 +1884,15 @@
         <v>31</v>
       </c>
       <c r="H6" s="6">
-        <v>5821</v>
+        <v>45686</v>
       </c>
       <c r="I6" s="5">
-        <v>45751</v>
+        <v>45783</v>
       </c>
       <c r="J6" s="5">
-        <v>2672</v>
-      </c>
-      <c r="K6" s="33">
-        <v>0</v>
-      </c>
+        <v>562.92999999999995</v>
+      </c>
+      <c r="K6" s="33"/>
       <c r="L6" s="13"/>
       <c r="M6" s="6"/>
       <c r="N6" s="28"/>
@@ -2108,20 +1902,14 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="6">
-        <v>6150</v>
-      </c>
-      <c r="C7" s="5">
-        <v>45754</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5">
-        <v>45751</v>
-      </c>
-      <c r="E7" s="33">
-        <v>2151.25</v>
-      </c>
+        <v>45784</v>
+      </c>
+      <c r="E7" s="33"/>
       <c r="F7" s="13" t="s">
         <v>15</v>
       </c>
@@ -2129,17 +1917,15 @@
         <v>31</v>
       </c>
       <c r="H7" s="6">
-        <v>54189</v>
+        <v>93079</v>
       </c>
       <c r="I7" s="5">
-        <v>45751</v>
+        <v>45779</v>
       </c>
       <c r="J7" s="5">
-        <v>2151.25</v>
-      </c>
-      <c r="K7" s="33">
-        <v>0</v>
-      </c>
+        <v>4758.3999999999996</v>
+      </c>
+      <c r="K7" s="33"/>
       <c r="L7" s="13"/>
       <c r="M7" s="6"/>
       <c r="N7" s="13"/>
@@ -2149,38 +1935,30 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="6">
-        <v>6149</v>
-      </c>
-      <c r="C8" s="5">
-        <v>45754</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="5">
-        <v>45751</v>
-      </c>
-      <c r="E8" s="33">
-        <v>7003.63</v>
-      </c>
+        <v>45784</v>
+      </c>
+      <c r="E8" s="33"/>
       <c r="F8" s="13" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="6">
-        <v>22370</v>
+        <v>93080</v>
       </c>
       <c r="I8" s="5">
-        <v>45751</v>
+        <v>45777</v>
       </c>
       <c r="J8" s="5">
-        <v>7003.63</v>
-      </c>
-      <c r="K8" s="33">
-        <v>0</v>
-      </c>
+        <v>80.7</v>
+      </c>
+      <c r="K8" s="33"/>
       <c r="L8" s="13"/>
       <c r="M8" s="6"/>
       <c r="N8" s="13"/>
@@ -2190,20 +1968,14 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="6">
-        <v>6154</v>
-      </c>
-      <c r="C9" s="5">
-        <v>45755</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="5">
-        <v>45751</v>
-      </c>
-      <c r="E9" s="10">
-        <v>6035.5</v>
-      </c>
+        <v>45784</v>
+      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="13" t="s">
         <v>15</v>
       </c>
@@ -2211,17 +1983,15 @@
         <v>31</v>
       </c>
       <c r="H9" s="6">
-        <v>121574</v>
+        <v>181675</v>
       </c>
       <c r="I9" s="5">
-        <v>45751</v>
+        <v>45777</v>
       </c>
       <c r="J9" s="5">
-        <v>6035.5</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0</v>
-      </c>
+        <v>37400.959999999999</v>
+      </c>
+      <c r="K9" s="10"/>
       <c r="L9" s="13"/>
       <c r="M9" s="26"/>
       <c r="N9" s="13"/>
@@ -2231,20 +2001,14 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="6">
-        <v>6153</v>
-      </c>
-      <c r="C10" s="5">
-        <v>45754</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="5">
-        <v>45751</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2745.5</v>
-      </c>
+        <v>45784</v>
+      </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="13" t="s">
         <v>15</v>
       </c>
@@ -2252,17 +2016,15 @@
         <v>31</v>
       </c>
       <c r="H10" s="6">
-        <v>250847</v>
+        <v>252170</v>
       </c>
       <c r="I10" s="5">
-        <v>45748</v>
+        <v>45782</v>
       </c>
       <c r="J10" s="5">
-        <v>2745.5</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0</v>
-      </c>
+        <v>1433.25</v>
+      </c>
+      <c r="K10" s="10"/>
       <c r="L10" s="13"/>
       <c r="M10" s="6"/>
       <c r="N10" s="13"/>
@@ -2272,38 +2034,30 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="6">
-        <v>6138</v>
-      </c>
-      <c r="C11" s="5">
-        <v>45736</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5">
-        <v>45749</v>
-      </c>
-      <c r="E11" s="10">
-        <v>465</v>
-      </c>
+        <v>45784</v>
+      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="6">
-        <v>333</v>
+        <v>24325</v>
       </c>
       <c r="I11" s="5">
-        <v>45754</v>
+        <v>45784</v>
       </c>
       <c r="J11" s="5">
-        <v>465</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0</v>
-      </c>
+        <v>5091.88</v>
+      </c>
+      <c r="K11" s="10"/>
       <c r="L11" s="13"/>
       <c r="M11" s="6"/>
       <c r="N11" s="13"/>
@@ -2313,38 +2067,30 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="6">
-        <v>6152</v>
-      </c>
-      <c r="C12" s="5">
-        <v>45754</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5">
-        <v>45751</v>
-      </c>
-      <c r="E12" s="33">
-        <v>2064.8000000000002</v>
-      </c>
+        <v>45784</v>
+      </c>
+      <c r="E12" s="33"/>
       <c r="F12" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="6">
-        <v>8390</v>
+        <v>305537</v>
       </c>
       <c r="I12" s="5">
-        <v>45751</v>
+        <v>45784</v>
       </c>
       <c r="J12" s="5">
-        <v>2064.8000000000002</v>
-      </c>
-      <c r="K12" s="33">
-        <v>0</v>
-      </c>
+        <v>487.65</v>
+      </c>
+      <c r="K12" s="33"/>
       <c r="L12" s="13"/>
       <c r="M12" s="6"/>
       <c r="N12" s="13"/>
@@ -2354,20 +2100,14 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="6">
-        <v>6146</v>
-      </c>
-      <c r="C13" s="5">
-        <v>45749</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5">
-        <v>45751</v>
-      </c>
-      <c r="E13" s="33">
-        <v>348</v>
-      </c>
+        <v>45784</v>
+      </c>
+      <c r="E13" s="33"/>
       <c r="F13" s="13" t="s">
         <v>15</v>
       </c>
@@ -2375,17 +2115,15 @@
         <v>31</v>
       </c>
       <c r="H13" s="6">
-        <v>1226</v>
+        <v>12177</v>
       </c>
       <c r="I13" s="5">
-        <v>45750</v>
+        <v>45784</v>
       </c>
       <c r="J13" s="5">
-        <v>348</v>
-      </c>
-      <c r="K13" s="33">
-        <v>0</v>
-      </c>
+        <v>5251.84</v>
+      </c>
+      <c r="K13" s="33"/>
       <c r="L13" s="13"/>
       <c r="M13" s="6"/>
       <c r="N13" s="28"/>
@@ -2395,20 +2133,14 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="6">
-        <v>6158</v>
-      </c>
-      <c r="C14" s="5">
-        <v>45756</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5">
-        <v>45755</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1610</v>
-      </c>
+        <v>45784</v>
+      </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="13" t="s">
         <v>15</v>
       </c>
@@ -2416,17 +2148,15 @@
         <v>31</v>
       </c>
       <c r="H14" s="6">
-        <v>195206</v>
+        <v>122571</v>
       </c>
       <c r="I14" s="5">
-        <v>45747</v>
+        <v>45784</v>
       </c>
       <c r="J14" s="5">
-        <v>1610</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
+        <v>11539</v>
+      </c>
+      <c r="K14" s="10"/>
       <c r="L14" s="13"/>
       <c r="M14" s="6"/>
       <c r="N14" s="28"/>
@@ -2436,38 +2166,30 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="6">
-        <v>6156</v>
-      </c>
-      <c r="C15" s="5">
-        <v>45755</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5">
-        <v>45755</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1820.07</v>
-      </c>
+        <v>45784</v>
+      </c>
+      <c r="E15" s="10"/>
       <c r="F15" s="13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H15" s="6">
-        <v>1383</v>
+        <v>6022</v>
       </c>
       <c r="I15" s="5">
-        <v>45755</v>
+        <v>45783</v>
       </c>
       <c r="J15" s="5">
-        <v>1820.07</v>
-      </c>
-      <c r="K15" s="10">
-        <v>0</v>
-      </c>
+        <v>4588</v>
+      </c>
+      <c r="K15" s="10"/>
       <c r="L15" s="13"/>
       <c r="M15" s="6"/>
       <c r="N15" s="28"/>
@@ -2477,20 +2199,14 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="6">
-        <v>6158</v>
-      </c>
-      <c r="C16" s="5">
-        <v>45756</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <v>45756</v>
-      </c>
-      <c r="E16" s="10">
-        <v>496.06</v>
-      </c>
+        <v>45784</v>
+      </c>
+      <c r="E16" s="10"/>
       <c r="F16" s="13" t="s">
         <v>15</v>
       </c>
@@ -2498,17 +2214,15 @@
         <v>31</v>
       </c>
       <c r="H16" s="6">
-        <v>45316</v>
+        <v>54704</v>
       </c>
       <c r="I16" s="5">
-        <v>45755</v>
+        <v>45783</v>
       </c>
       <c r="J16" s="5">
-        <v>496.06</v>
-      </c>
-      <c r="K16" s="10">
-        <v>0</v>
-      </c>
+        <v>4797</v>
+      </c>
+      <c r="K16" s="10"/>
       <c r="L16" s="13"/>
       <c r="M16" s="6"/>
       <c r="N16" s="28"/>
@@ -2517,39 +2231,17 @@
       <c r="Q16" s="88"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="6">
-        <v>6157</v>
-      </c>
-      <c r="C17" s="5">
-        <v>45755</v>
-      </c>
-      <c r="D17" s="5">
-        <v>45755</v>
-      </c>
-      <c r="E17" s="33">
-        <v>420</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="6">
-        <v>15703</v>
-      </c>
-      <c r="I17" s="5">
-        <v>45754</v>
-      </c>
-      <c r="J17" s="5">
-        <v>420</v>
-      </c>
-      <c r="K17" s="33">
-        <v>0</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="33"/>
       <c r="L17" s="13"/>
       <c r="M17" s="6"/>
       <c r="N17" s="28"/>
@@ -2558,39 +2250,17 @@
       <c r="Q17" s="88"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18">
-        <v>6160</v>
-      </c>
-      <c r="C18">
-        <v>45756</v>
-      </c>
-      <c r="D18">
-        <v>45756</v>
-      </c>
-      <c r="E18">
-        <v>2060</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="6">
-        <v>121683</v>
-      </c>
-      <c r="I18" s="5">
-        <v>45756</v>
-      </c>
-      <c r="J18" s="5">
-        <v>2060</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0</v>
-      </c>
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="10"/>
       <c r="L18" s="13"/>
       <c r="M18" s="6"/>
       <c r="N18" s="28"/>
@@ -2599,39 +2269,17 @@
       <c r="Q18" s="88"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19">
-        <v>6155</v>
-      </c>
-      <c r="C19">
-        <v>45755</v>
-      </c>
-      <c r="D19">
-        <v>45758</v>
-      </c>
-      <c r="E19">
-        <v>5752.04</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="6">
-        <v>516260</v>
-      </c>
-      <c r="I19" s="5">
-        <v>45758</v>
-      </c>
-      <c r="J19" s="5">
-        <v>3720.04</v>
-      </c>
-      <c r="K19" s="33">
-        <v>-2032</v>
-      </c>
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="33"/>
       <c r="L19" s="13"/>
       <c r="M19" s="6"/>
       <c r="N19" s="28"/>
@@ -2640,39 +2288,17 @@
       <c r="Q19" s="30"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20">
-        <v>6163</v>
-      </c>
-      <c r="C20">
-        <v>45757</v>
-      </c>
-      <c r="D20">
-        <v>45757</v>
-      </c>
-      <c r="E20">
-        <v>2832.5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="6">
-        <v>17679</v>
-      </c>
-      <c r="I20" s="5">
-        <v>45757</v>
-      </c>
-      <c r="J20" s="5">
-        <v>2832.5</v>
-      </c>
-      <c r="K20" s="10">
-        <v>0</v>
-      </c>
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="10"/>
       <c r="L20" s="13"/>
       <c r="M20" s="6"/>
       <c r="N20" s="28"/>
@@ -2681,39 +2307,17 @@
       <c r="Q20" s="30"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21">
-        <v>6147</v>
-      </c>
-      <c r="C21">
-        <v>45754</v>
-      </c>
-      <c r="D21">
-        <v>45762</v>
-      </c>
-      <c r="E21">
-        <v>976</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="6">
-        <v>205726</v>
-      </c>
-      <c r="I21" s="5">
-        <v>45761</v>
-      </c>
-      <c r="J21" s="5">
-        <v>974.23</v>
-      </c>
-      <c r="K21" s="10">
-        <v>-1.7699999999999818</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="13"/>
       <c r="M21" s="6"/>
       <c r="N21" s="28"/>
@@ -2722,33 +2326,17 @@
       <c r="Q21" s="30"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
+      <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22">
-        <v>45762</v>
-      </c>
+      <c r="D22"/>
       <c r="E22"/>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="6">
-        <v>25346</v>
-      </c>
-      <c r="I22" s="6">
-        <v>45758</v>
-      </c>
-      <c r="J22" s="5">
-        <v>6927</v>
-      </c>
-      <c r="K22" s="10">
-        <v>6927</v>
-      </c>
+      <c r="F22"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="13"/>
       <c r="M22" s="6"/>
       <c r="N22" s="28"/>
@@ -2757,33 +2345,17 @@
       <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
+      <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23">
-        <v>45762</v>
-      </c>
+      <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="6">
-        <v>251386</v>
-      </c>
-      <c r="I23" s="6">
-        <v>45762</v>
-      </c>
-      <c r="J23" s="5">
-        <v>1412</v>
-      </c>
-      <c r="K23" s="10">
-        <v>1412</v>
-      </c>
+      <c r="F23"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="10"/>
       <c r="L23" s="13"/>
       <c r="M23" s="6"/>
       <c r="N23" s="28"/>
@@ -2792,33 +2364,17 @@
       <c r="Q23" s="30"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
+      <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24">
-        <v>45762</v>
-      </c>
+      <c r="D24"/>
       <c r="E24"/>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="6">
-        <v>17833</v>
-      </c>
-      <c r="I24" s="6">
-        <v>45762</v>
-      </c>
-      <c r="J24" s="5">
-        <v>460</v>
-      </c>
-      <c r="K24" s="10">
-        <v>460</v>
-      </c>
+      <c r="F24"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="10"/>
       <c r="L24" s="13"/>
       <c r="M24" s="6"/>
       <c r="N24" s="28"/>
@@ -2827,33 +2383,17 @@
       <c r="Q24" s="30"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
+      <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25">
-        <v>45762</v>
-      </c>
+      <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="6">
-        <v>302119</v>
-      </c>
-      <c r="I25" s="6">
-        <v>45762</v>
-      </c>
-      <c r="J25" s="5">
-        <v>508.54</v>
-      </c>
-      <c r="K25" s="10">
-        <v>508.54</v>
-      </c>
+      <c r="F25"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="10"/>
       <c r="L25" s="13"/>
       <c r="M25" s="6"/>
       <c r="N25" s="28"/>
@@ -2862,33 +2402,17 @@
       <c r="Q25" s="30"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
+      <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26">
-        <v>45762</v>
-      </c>
+      <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="6">
-        <v>121952</v>
-      </c>
-      <c r="I26" s="6">
-        <v>45762</v>
-      </c>
-      <c r="J26" s="5">
-        <v>3360</v>
-      </c>
-      <c r="K26" s="10">
-        <v>3360</v>
-      </c>
+      <c r="F26"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="10"/>
       <c r="L26" s="13"/>
       <c r="M26" s="6"/>
       <c r="N26" s="28"/>
@@ -2897,33 +2421,17 @@
       <c r="Q26" s="30"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
+      <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27">
-        <v>45762</v>
-      </c>
+      <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="6">
-        <v>11515</v>
-      </c>
-      <c r="I27" s="6">
-        <v>45762</v>
-      </c>
-      <c r="J27" s="5">
-        <v>2509.5</v>
-      </c>
-      <c r="K27" s="10">
-        <v>2509.5</v>
-      </c>
+      <c r="F27"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="10"/>
       <c r="L27" s="13"/>
       <c r="M27" s="6"/>
       <c r="N27" s="28"/>
@@ -2932,39 +2440,17 @@
       <c r="Q27" s="30"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28">
-        <v>6165</v>
-      </c>
-      <c r="C28">
-        <v>45762</v>
-      </c>
-      <c r="D28">
-        <v>45762</v>
-      </c>
-      <c r="E28">
-        <v>17.170000000000002</v>
-      </c>
-      <c r="F28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="6">
-        <v>981.2</v>
-      </c>
-      <c r="I28" s="5">
-        <v>45762</v>
-      </c>
-      <c r="J28" s="5">
-        <v>17.170000000000002</v>
-      </c>
-      <c r="K28" s="10">
-        <v>0</v>
-      </c>
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="10"/>
       <c r="L28" s="13"/>
       <c r="M28" s="6"/>
       <c r="N28" s="28"/>
@@ -2973,33 +2459,17 @@
       <c r="Q28" s="30"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
+      <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29">
-        <v>45763</v>
-      </c>
+      <c r="D29"/>
       <c r="E29"/>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="6">
-        <v>54404</v>
-      </c>
-      <c r="I29" s="6">
-        <v>45763</v>
-      </c>
-      <c r="J29" s="5">
-        <v>785.5</v>
-      </c>
-      <c r="K29" s="10">
-        <v>785.5</v>
-      </c>
+      <c r="F29"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="10"/>
       <c r="L29" s="13"/>
       <c r="M29" s="6"/>
       <c r="N29" s="28"/>
@@ -3008,33 +2478,17 @@
       <c r="Q29" s="30"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
+      <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30">
-        <v>45763</v>
-      </c>
+      <c r="D30"/>
       <c r="E30"/>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="6">
-        <v>302336</v>
-      </c>
-      <c r="I30" s="6">
-        <v>45763</v>
-      </c>
-      <c r="J30" s="5">
-        <v>464.59</v>
-      </c>
-      <c r="K30" s="10">
-        <v>464.59</v>
-      </c>
+      <c r="F30"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="10"/>
       <c r="L30" s="13"/>
       <c r="M30" s="6"/>
       <c r="N30" s="28"/>
@@ -3043,33 +2497,17 @@
       <c r="Q30" s="30"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
+      <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31">
-        <v>45763</v>
-      </c>
+      <c r="D31"/>
       <c r="E31"/>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="6">
-        <v>5899</v>
-      </c>
-      <c r="I31" s="6">
-        <v>45763</v>
-      </c>
-      <c r="J31" s="5">
-        <v>555</v>
-      </c>
-      <c r="K31" s="33">
-        <v>555</v>
-      </c>
+      <c r="F31"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="33"/>
       <c r="L31" s="13"/>
       <c r="M31" s="6"/>
       <c r="N31" s="28"/>
@@ -3078,33 +2516,17 @@
       <c r="Q31" s="30"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
+      <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32">
-        <v>45763</v>
-      </c>
+      <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="6">
-        <v>23107</v>
-      </c>
-      <c r="I32" s="6">
-        <v>45763</v>
-      </c>
-      <c r="J32" s="5">
-        <v>2091.9299999999998</v>
-      </c>
-      <c r="K32" s="33">
-        <v>2091.9299999999998</v>
-      </c>
+      <c r="F32"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="13"/>
       <c r="M32" s="6"/>
       <c r="N32" s="28"/>
@@ -3113,39 +2535,17 @@
       <c r="Q32" s="30"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33">
-        <v>6166</v>
-      </c>
-      <c r="C33">
-        <v>45763</v>
-      </c>
-      <c r="D33">
-        <v>45764</v>
-      </c>
-      <c r="E33">
-        <v>395.74</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="6">
-        <v>45423</v>
-      </c>
-      <c r="I33" s="5">
-        <v>45762</v>
-      </c>
-      <c r="J33" s="5">
-        <v>395.74</v>
-      </c>
-      <c r="K33" s="10">
-        <v>0</v>
-      </c>
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="10"/>
       <c r="L33" s="13"/>
       <c r="M33" s="6"/>
       <c r="N33" s="28"/>
@@ -3154,33 +2554,17 @@
       <c r="Q33" s="30"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
+      <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34">
-        <v>45763</v>
-      </c>
+      <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="6">
-        <v>7884</v>
-      </c>
-      <c r="I34" s="6">
-        <v>45762</v>
-      </c>
-      <c r="J34" s="5">
-        <v>380</v>
-      </c>
-      <c r="K34" s="10">
-        <v>380</v>
-      </c>
+      <c r="F34"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="10"/>
       <c r="L34" s="13"/>
       <c r="M34" s="6"/>
       <c r="N34" s="28"/>
@@ -3189,378 +2573,160 @@
       <c r="Q34" s="30"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35">
-        <v>6167</v>
-      </c>
-      <c r="C35">
-        <v>45763</v>
-      </c>
-      <c r="D35">
-        <v>45764</v>
-      </c>
-      <c r="E35">
-        <v>2500</v>
-      </c>
-      <c r="F35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35">
-        <v>6532</v>
-      </c>
-      <c r="I35">
-        <v>45764</v>
-      </c>
-      <c r="J35">
-        <v>2500</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36">
-        <v>6170</v>
-      </c>
-      <c r="C36">
-        <v>45764</v>
-      </c>
-      <c r="D36">
-        <v>45764</v>
-      </c>
-      <c r="E36">
-        <v>408</v>
-      </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36">
-        <v>1240</v>
-      </c>
-      <c r="I36">
-        <v>45763</v>
-      </c>
-      <c r="J36">
-        <v>408</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5">
-        <v>45764</v>
-      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="28">
-        <v>246457</v>
-      </c>
-      <c r="I37" s="29">
-        <v>45763</v>
-      </c>
-      <c r="J37" s="14">
-        <v>3414.44</v>
-      </c>
-      <c r="K37" s="30">
-        <v>3414.44</v>
-      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="30"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="6">
-        <v>6174</v>
-      </c>
-      <c r="C38" s="5">
-        <v>45770</v>
-      </c>
-      <c r="D38" s="5">
-        <v>45770</v>
-      </c>
-      <c r="E38" s="10">
-        <v>312.13</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="28">
-        <v>45484</v>
-      </c>
-      <c r="I38" s="29">
-        <v>45769</v>
-      </c>
-      <c r="J38" s="14">
-        <v>312.13</v>
-      </c>
-      <c r="K38" s="30">
-        <v>0</v>
-      </c>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="30"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5">
-        <v>45769</v>
-      </c>
+      <c r="D39" s="5"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="28">
-        <v>1445</v>
-      </c>
-      <c r="I39" s="29">
-        <v>45769</v>
-      </c>
-      <c r="J39" s="14">
-        <v>2188.62</v>
-      </c>
-      <c r="K39" s="30">
-        <v>2188.62</v>
-      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="30"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="A40" s="6"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="5">
-        <v>45771</v>
-      </c>
-      <c r="D40" s="5">
-        <v>45772</v>
-      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="28">
-        <v>1817372</v>
-      </c>
-      <c r="I40" s="29">
-        <v>45771</v>
-      </c>
-      <c r="J40" s="14">
-        <v>473.69</v>
-      </c>
-      <c r="K40" s="30">
-        <v>473.69</v>
-      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="30"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5">
-        <v>45772</v>
-      </c>
+      <c r="D41" s="5"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="28">
-        <v>23519</v>
-      </c>
-      <c r="I41" s="29">
-        <v>45771</v>
-      </c>
-      <c r="J41" s="14">
-        <v>1191.45</v>
-      </c>
-      <c r="K41" s="30">
-        <v>1191.45</v>
-      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="30"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5">
-        <v>45772</v>
-      </c>
+      <c r="D42" s="5"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="28">
-        <v>122241</v>
-      </c>
-      <c r="I42" s="29">
-        <v>45772</v>
-      </c>
-      <c r="J42" s="14">
-        <v>1919</v>
-      </c>
-      <c r="K42" s="30">
-        <v>1919</v>
-      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="30"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5">
-        <v>45772</v>
-      </c>
+      <c r="D43" s="5"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="28">
-        <v>251701</v>
-      </c>
-      <c r="I43" s="29">
-        <v>45771</v>
-      </c>
-      <c r="J43" s="14">
-        <v>862.5</v>
-      </c>
-      <c r="K43" s="30">
-        <v>862.5</v>
-      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="30"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5">
-        <v>45772</v>
-      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="28">
-        <v>303751</v>
-      </c>
-      <c r="I44" s="29">
-        <v>45772</v>
-      </c>
-      <c r="J44" s="14">
-        <v>520.19000000000005</v>
-      </c>
-      <c r="K44" s="30">
-        <v>520.19000000000005</v>
-      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="30"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5">
-        <v>45772</v>
-      </c>
+      <c r="D45" s="5"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="28">
-        <v>21746</v>
-      </c>
-      <c r="I45" s="29">
-        <v>45771</v>
-      </c>
-      <c r="J45" s="14">
-        <v>75</v>
-      </c>
-      <c r="K45" s="30">
-        <v>75</v>
-      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="30"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="6">
-        <v>6162</v>
-      </c>
-      <c r="C46" s="5">
-        <v>45757</v>
-      </c>
-      <c r="D46" s="5">
-        <v>45772</v>
-      </c>
-      <c r="E46" s="10">
-        <v>373.14</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="28">
-        <v>10424</v>
-      </c>
-      <c r="I46" s="29">
-        <v>45771</v>
-      </c>
-      <c r="J46" s="14">
-        <v>105</v>
-      </c>
-      <c r="K46" s="30">
-        <v>0</v>
-      </c>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="30"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -3569,18 +2735,10 @@
       <c r="D47" s="5"/>
       <c r="E47" s="10"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="28">
-        <v>123874</v>
-      </c>
-      <c r="I47" s="29">
-        <v>45769</v>
-      </c>
-      <c r="J47" s="14">
-        <v>56.55</v>
-      </c>
+      <c r="G47" s="26"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="14"/>
       <c r="K47" s="30"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -3590,18 +2748,10 @@
       <c r="D48" s="5"/>
       <c r="E48" s="10"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="28">
-        <v>35075</v>
-      </c>
-      <c r="I48" s="29">
-        <v>45769</v>
-      </c>
-      <c r="J48" s="14">
-        <v>78.59</v>
-      </c>
+      <c r="G48" s="26"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="14"/>
       <c r="K48" s="30"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3611,51 +2761,23 @@
       <c r="D49" s="5"/>
       <c r="E49" s="10"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="28">
-        <v>100953</v>
-      </c>
-      <c r="I49" s="29">
-        <v>45769</v>
-      </c>
-      <c r="J49" s="14">
-        <v>133</v>
-      </c>
+      <c r="G49" s="26"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="14"/>
       <c r="K49" s="30"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="6">
-        <v>6144</v>
-      </c>
-      <c r="C50" s="5">
-        <v>45744</v>
-      </c>
-      <c r="D50" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E50" s="10">
-        <v>1984.5</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" s="28">
-        <v>1343</v>
-      </c>
-      <c r="I50" s="29">
-        <v>45744</v>
-      </c>
-      <c r="J50" s="14">
-        <v>1984.5</v>
-      </c>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="14"/>
       <c r="K50" s="30"/>
     </row>
   </sheetData>
@@ -4357,7 +3479,7 @@
     </row>
     <row r="32" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="68" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B32" s="82"/>
       <c r="C32" s="77">
@@ -4378,7 +3500,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="68" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B33" s="82"/>
       <c r="C33" s="77">
@@ -4399,7 +3521,7 @@
     </row>
     <row r="34" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="68" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B34" s="82"/>
       <c r="C34" s="77">
@@ -4483,7 +3605,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="68" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B38" s="82"/>
       <c r="C38" s="77">
